--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_24_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_24_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>579967.0628773851</v>
+        <v>487820.7840321045</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14793534.46552418</v>
+        <v>14774421.61154188</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5932341.515712983</v>
+        <v>5937861.033701884</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.848256208035306</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>49.79500702712463</v>
@@ -673,10 +673,10 @@
         <v>49.79500702712463</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.848256208035304</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>43.85944218949135</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>49.79500702712463</v>
@@ -800,10 +800,10 @@
         <v>49.79500702712463</v>
       </c>
       <c r="W3" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>43.85944218949135</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -940,25 +940,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>23.65357118422324</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>92.6649492891022</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="U5" t="n">
-        <v>57.96571614961795</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>37.57007701068536</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>42.89642527627125</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -989,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>92.6649492891022</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="H6" t="n">
-        <v>92.6649492891022</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="I6" t="n">
-        <v>65.63472101605001</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>33.84730027516773</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1019,10 +1019,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>21.81101977343823</v>
       </c>
       <c r="R6" t="n">
-        <v>74.80221533172566</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1144,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>18.59473170946464</v>
+        <v>18.59473170946467</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.61164031771682</v>
+        <v>15.61164031771685</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>64.54245901085116</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>64.54245901085132</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="X8" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>89.42651845964515</v>
       </c>
       <c r="H9" t="n">
-        <v>102.3448132540521</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>64.26286446312977</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>30.08282103867671</v>
+        <v>30.08282103867673</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1256,13 +1256,13 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>9.256558775821446</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.09559288881302</v>
       </c>
       <c r="S9" t="n">
-        <v>14.17099240709793</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1274,10 +1274,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>112.1126601249237</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="X9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>3.625377488803587</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>3.625377488803558</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1372,16 +1372,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>253.2072517179837</v>
+        <v>264.792774084143</v>
       </c>
       <c r="D11" t="n">
-        <v>253.2072517179837</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>253.2072517179837</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>10.57606831438235</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.60100871793725</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>212.4488789988175</v>
+        <v>212.2733715924669</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.1478691870522</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>264.792774084143</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1460,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>30.5226737957354</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.0207219127059</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>53.97877159446445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>149.7182869347529</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.8543560776521</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>112.1537208505818</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>122.7260842780536</v>
       </c>
     </row>
     <row r="14">
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>223.0249473131999</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>253.2072517179836</v>
+        <v>264.792774084143</v>
       </c>
       <c r="E14" t="n">
-        <v>253.2072517179836</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>253.2072517179836</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>264.792774084143</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>20.95610382084628</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.2733715924669</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>264.792774084143</v>
       </c>
     </row>
     <row r="15">
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>34.92084239977618</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.855767372567</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1751,10 +1751,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>190.064312870806</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>112.1537208505818</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>122.7260842780538</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>264.7927740841431</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>264.7927740841431</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>253.2072517179836</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>253.2072517179836</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>253.2072517179836</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>223.0249473132</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>233.2294754133131</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>264.7927740841431</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,22 +1922,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>142.7062979613995</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.0421735954127</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>64.88204981594646</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1982,16 +1982,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>195.2381486048528</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>112.1537208505818</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>122.7260842780538</v>
       </c>
     </row>
     <row r="20">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>264.7927740841432</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>172.9443332331203</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>264.7927740841432</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>60.28514218019293</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.4488789988175</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1510766325138</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>253.2072517179838</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>253.2072517179838</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>12.63224339985246</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>264.7927740841432</v>
       </c>
     </row>
     <row r="21">
@@ -2171,13 +2171,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>41.06690993520854</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.0207219127059</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>99.46002694872712</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>63.55016376157396</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>194.9194008930395</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.855767372567</v>
+        <v>147.3456107575511</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>122.7260842780538</v>
       </c>
       <c r="T22" t="n">
-        <v>112.1537208505818</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>88.86289990714701</v>
       </c>
       <c r="T23" t="n">
-        <v>208.0722578696038</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>80.07135800774326</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2447,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>137.5750138932992</v>
+        <v>51.85254607930058</v>
       </c>
       <c r="T24" t="n">
         <v>192.7632183107638</v>
       </c>
       <c r="U24" t="n">
-        <v>140.0981061540699</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>105.3620822402484</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>53.56180456272201</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,16 +2557,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>208.0722578696038</v>
       </c>
       <c r="U26" t="n">
-        <v>108.1221580505406</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>162.8648074440627</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,10 +2636,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>133.6926787005326</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2651,10 +2651,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>36.29946757904879</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>31.6688608772142</v>
       </c>
       <c r="S27" t="n">
         <v>137.5750138932992</v>
@@ -2690,7 +2690,7 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U27" t="n">
-        <v>182.0063243014816</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2715,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>9.854692234072957</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>220.0133056736537</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H29" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I29" t="n">
-        <v>78.16360657708285</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>208.0722578696038</v>
       </c>
       <c r="U29" t="n">
-        <v>42.7941550370854</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>48.27973855262105</v>
       </c>
     </row>
     <row r="30">
@@ -2870,22 +2870,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>80.81071583586878</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2921,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U30" t="n">
-        <v>90.54273130115158</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2936,7 +2936,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,10 +2970,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>79.67151125099365</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>18.15430933923913</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>250.7831302631797</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3043,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>258.392201474462</v>
+        <v>307.1897046290676</v>
       </c>
       <c r="H32" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3110,16 +3110,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>88.51051784130878</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>36.29946757904879</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3161,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>130.2280544827303</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>53.56180456272255</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>13.04911722935353</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>370.5774855891249</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>78.16360657708285</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>135.0402333458782</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3359,10 +3359,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>20.27697994470931</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>12.16722289772188</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3410,7 +3410,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>185.6279506608913</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>246.4412936084446</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3508,22 +3508,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>268.9820516247865</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H38" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>311.4518164554842</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,28 +3581,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>9.297825313166026</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>36.29946757904879</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>31.6688608772142</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>137.5750138932992</v>
       </c>
       <c r="T39" t="n">
-        <v>122.0992942997114</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3666,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>129.5422102149352</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3705,13 +3705,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.59469128425542</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>108.0728512656385</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>83.78942963925968</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3751,10 +3751,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>212.3435331937538</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>52.92405383223588</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3821,25 +3821,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>36.29946757904879</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,22 +3866,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>31.6688608772142</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>192.7632183107638</v>
       </c>
       <c r="U42" t="n">
-        <v>212.6791628731364</v>
+        <v>61.2161463456024</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3915,13 +3915,13 @@
         <v>166.4515011109318</v>
       </c>
       <c r="H43" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>18.15430933923913</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3942,19 +3942,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.59469128425542</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>7.25647045472721</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>84.33162915224787</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>208.0722578696038</v>
+        <v>182.4031684223887</v>
       </c>
       <c r="U44" t="n">
-        <v>30.29635774193889</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -4064,10 +4064,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>39.27180328731499</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4103,22 +4103,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>31.6688608772142</v>
       </c>
       <c r="S45" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>192.7632183107638</v>
       </c>
       <c r="U45" t="n">
-        <v>174.4343180509911</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>104.3491676166105</v>
       </c>
       <c r="V46" t="n">
-        <v>100.007330961876</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4309,19 +4309,19 @@
         <v>156.7444867130883</v>
       </c>
       <c r="C2" t="n">
-        <v>154.8775612504264</v>
+        <v>156.7444867130883</v>
       </c>
       <c r="D2" t="n">
-        <v>104.5795743543409</v>
+        <v>156.7444867130883</v>
       </c>
       <c r="E2" t="n">
-        <v>54.28158745825545</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="F2" t="n">
-        <v>3.98360056216997</v>
+        <v>56.14851292091738</v>
       </c>
       <c r="G2" t="n">
-        <v>3.98360056216997</v>
+        <v>5.850526024831893</v>
       </c>
       <c r="H2" t="n">
         <v>3.98360056216997</v>
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.98360056216997</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="C3" t="n">
-        <v>3.98360056216997</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="D3" t="n">
-        <v>3.98360056216997</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="E3" t="n">
-        <v>3.98360056216997</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="F3" t="n">
-        <v>3.98360056216997</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="G3" t="n">
-        <v>3.98360056216997</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="H3" t="n">
         <v>3.98360056216997</v>
@@ -4418,13 +4418,13 @@
         <v>50.30614171732423</v>
       </c>
       <c r="M3" t="n">
-        <v>71.84601783796413</v>
+        <v>99.60319867417761</v>
       </c>
       <c r="N3" t="n">
-        <v>121.1430747948175</v>
+        <v>148.900255631031</v>
       </c>
       <c r="O3" t="n">
-        <v>170.4401317516709</v>
+        <v>198.1973125878844</v>
       </c>
       <c r="P3" t="n">
         <v>199.1800281084985</v>
@@ -4439,22 +4439,22 @@
         <v>199.1800281084985</v>
       </c>
       <c r="T3" t="n">
-        <v>154.8775612504264</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="U3" t="n">
-        <v>104.5795743543409</v>
+        <v>148.882041212413</v>
       </c>
       <c r="V3" t="n">
+        <v>98.58405431632752</v>
+      </c>
+      <c r="W3" t="n">
+        <v>98.58405431632752</v>
+      </c>
+      <c r="X3" t="n">
         <v>54.28158745825545</v>
       </c>
-      <c r="W3" t="n">
-        <v>3.98360056216997</v>
-      </c>
-      <c r="X3" t="n">
-        <v>3.98360056216997</v>
-      </c>
       <c r="Y3" t="n">
-        <v>3.98360056216997</v>
+        <v>54.28158745825545</v>
       </c>
     </row>
     <row r="4">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.413195943128176</v>
+        <v>80.08361853967295</v>
       </c>
       <c r="C5" t="n">
-        <v>7.413195943128176</v>
+        <v>80.08361853967295</v>
       </c>
       <c r="D5" t="n">
-        <v>7.413195943128176</v>
+        <v>80.08361853967295</v>
       </c>
       <c r="E5" t="n">
-        <v>7.413195943128176</v>
+        <v>80.08361853967295</v>
       </c>
       <c r="F5" t="n">
-        <v>7.413195943128176</v>
+        <v>80.08361853967295</v>
       </c>
       <c r="G5" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="H5" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="I5" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="J5" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="K5" t="n">
-        <v>21.18357364821451</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="L5" t="n">
-        <v>75.16870670940374</v>
+        <v>42.77891399687743</v>
       </c>
       <c r="M5" t="n">
-        <v>166.9070065056149</v>
+        <v>115.5086717162376</v>
       </c>
       <c r="N5" t="n">
-        <v>258.6453063018261</v>
+        <v>188.2384294355977</v>
       </c>
       <c r="O5" t="n">
-        <v>337.6943058037292</v>
+        <v>249.0477644106464</v>
       </c>
       <c r="P5" t="n">
-        <v>370.6597971564088</v>
+        <v>266.4461240792085</v>
       </c>
       <c r="Q5" t="n">
-        <v>346.7673010107287</v>
+        <v>266.4461240792085</v>
       </c>
       <c r="R5" t="n">
-        <v>253.1663421328477</v>
+        <v>266.4461240792085</v>
       </c>
       <c r="S5" t="n">
-        <v>159.5653832549667</v>
+        <v>266.4461240792085</v>
       </c>
       <c r="T5" t="n">
-        <v>65.96442437708571</v>
+        <v>192.2396576784737</v>
       </c>
       <c r="U5" t="n">
-        <v>7.413195943128176</v>
+        <v>118.033191277739</v>
       </c>
       <c r="V5" t="n">
-        <v>7.413195943128176</v>
+        <v>118.033191277739</v>
       </c>
       <c r="W5" t="n">
-        <v>7.413195943128176</v>
+        <v>80.08361853967295</v>
       </c>
       <c r="X5" t="n">
-        <v>7.413195943128176</v>
+        <v>80.08361853967295</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.413195943128176</v>
+        <v>80.08361853967295</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>295.1020038920394</v>
+        <v>197.6198074416918</v>
       </c>
       <c r="C6" t="n">
-        <v>295.1020038920394</v>
+        <v>154.2900849404077</v>
       </c>
       <c r="D6" t="n">
-        <v>295.1020038920394</v>
+        <v>154.2900849404077</v>
       </c>
       <c r="E6" t="n">
-        <v>295.1020038920394</v>
+        <v>154.2900849404077</v>
       </c>
       <c r="F6" t="n">
-        <v>295.1020038920394</v>
+        <v>154.2900849404077</v>
       </c>
       <c r="G6" t="n">
-        <v>201.5010450141584</v>
+        <v>80.08361853967295</v>
       </c>
       <c r="H6" t="n">
-        <v>107.9000861362774</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="I6" t="n">
-        <v>41.60238814026729</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="J6" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="K6" t="n">
-        <v>7.413195943128176</v>
+        <v>17.40704038112031</v>
       </c>
       <c r="L6" t="n">
-        <v>81.81537555601327</v>
+        <v>33.29375035026968</v>
       </c>
       <c r="M6" t="n">
-        <v>173.5536753522244</v>
+        <v>106.0235080696298</v>
       </c>
       <c r="N6" t="n">
-        <v>226.5580308522524</v>
+        <v>178.7532657889899</v>
       </c>
       <c r="O6" t="n">
-        <v>317.2247932514005</v>
+        <v>251.4830235083501</v>
       </c>
       <c r="P6" t="n">
-        <v>370.6597971564088</v>
+        <v>293.8576069469096</v>
       </c>
       <c r="Q6" t="n">
-        <v>370.6597971564088</v>
+        <v>271.8262738424266</v>
       </c>
       <c r="R6" t="n">
-        <v>295.1020038920394</v>
+        <v>271.8262738424266</v>
       </c>
       <c r="S6" t="n">
-        <v>295.1020038920394</v>
+        <v>271.8262738424266</v>
       </c>
       <c r="T6" t="n">
-        <v>295.1020038920394</v>
+        <v>271.8262738424266</v>
       </c>
       <c r="U6" t="n">
-        <v>295.1020038920394</v>
+        <v>271.8262738424266</v>
       </c>
       <c r="V6" t="n">
-        <v>295.1020038920394</v>
+        <v>271.8262738424266</v>
       </c>
       <c r="W6" t="n">
-        <v>295.1020038920394</v>
+        <v>197.6198074416918</v>
       </c>
       <c r="X6" t="n">
-        <v>295.1020038920394</v>
+        <v>197.6198074416918</v>
       </c>
       <c r="Y6" t="n">
-        <v>295.1020038920394</v>
+        <v>197.6198074416918</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="C7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="D7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="E7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="F7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="G7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="H7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="I7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="J7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="K7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="L7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="M7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="N7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="O7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="P7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="R7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="S7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="T7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="U7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="V7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="W7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="X7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>254.2417925668748</v>
+        <v>140.9966813295781</v>
       </c>
       <c r="C8" t="n">
-        <v>254.2417925668748</v>
+        <v>140.9966813295781</v>
       </c>
       <c r="D8" t="n">
-        <v>254.2417925668748</v>
+        <v>140.9966813295781</v>
       </c>
       <c r="E8" t="n">
-        <v>254.2417925668748</v>
+        <v>140.9966813295781</v>
       </c>
       <c r="F8" t="n">
-        <v>254.2417925668748</v>
+        <v>27.75157009228144</v>
       </c>
       <c r="G8" t="n">
-        <v>254.2417925668748</v>
+        <v>27.75157009228144</v>
       </c>
       <c r="H8" t="n">
+        <v>27.75157009228144</v>
+      </c>
+      <c r="I8" t="n">
+        <v>27.75157009228144</v>
+      </c>
+      <c r="J8" t="n">
+        <v>8.969012809993892</v>
+      </c>
+      <c r="K8" t="n">
+        <v>32.11753523687542</v>
+      </c>
+      <c r="L8" t="n">
+        <v>97.73708609773402</v>
+      </c>
+      <c r="M8" t="n">
+        <v>202.4209174083929</v>
+      </c>
+      <c r="N8" t="n">
+        <v>313.4124509320674</v>
+      </c>
+      <c r="O8" t="n">
+        <v>404.8833474416797</v>
+      </c>
+      <c r="P8" t="n">
+        <v>448.4506404996945</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>432.6813068454351</v>
+      </c>
+      <c r="R8" t="n">
+        <v>432.6813068454351</v>
+      </c>
+      <c r="S8" t="n">
+        <v>432.6813068454351</v>
+      </c>
+      <c r="T8" t="n">
+        <v>367.4869038041713</v>
+      </c>
+      <c r="U8" t="n">
+        <v>254.2417925668747</v>
+      </c>
+      <c r="V8" t="n">
+        <v>254.2417925668747</v>
+      </c>
+      <c r="W8" t="n">
         <v>140.9966813295781</v>
       </c>
-      <c r="I8" t="n">
-        <v>27.75157009228141</v>
-      </c>
-      <c r="J8" t="n">
-        <v>8.969012809993897</v>
-      </c>
-      <c r="K8" t="n">
-        <v>32.11753523687554</v>
-      </c>
-      <c r="L8" t="n">
-        <v>97.73708609773416</v>
-      </c>
-      <c r="M8" t="n">
-        <v>202.4209174083931</v>
-      </c>
-      <c r="N8" t="n">
-        <v>313.4124509320676</v>
-      </c>
-      <c r="O8" t="n">
-        <v>404.8833474416799</v>
-      </c>
-      <c r="P8" t="n">
-        <v>448.4506404996948</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>432.6813068454354</v>
-      </c>
-      <c r="R8" t="n">
-        <v>432.6813068454354</v>
-      </c>
-      <c r="S8" t="n">
-        <v>432.6813068454354</v>
-      </c>
-      <c r="T8" t="n">
-        <v>432.6813068454354</v>
-      </c>
-      <c r="U8" t="n">
-        <v>432.6813068454354</v>
-      </c>
-      <c r="V8" t="n">
-        <v>432.6813068454354</v>
-      </c>
-      <c r="W8" t="n">
-        <v>367.4869038041714</v>
-      </c>
       <c r="X8" t="n">
-        <v>254.2417925668748</v>
+        <v>140.9966813295781</v>
       </c>
       <c r="Y8" t="n">
-        <v>254.2417925668748</v>
+        <v>140.9966813295781</v>
       </c>
     </row>
     <row r="9">
@@ -4859,31 +4859,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>207.6462842805581</v>
+        <v>242.93062859105</v>
       </c>
       <c r="C9" t="n">
-        <v>207.6462842805581</v>
+        <v>242.93062859105</v>
       </c>
       <c r="D9" t="n">
-        <v>207.6462842805581</v>
+        <v>242.93062859105</v>
       </c>
       <c r="E9" t="n">
-        <v>207.6462842805581</v>
+        <v>242.93062859105</v>
       </c>
       <c r="F9" t="n">
-        <v>207.6462842805581</v>
+        <v>129.6855173537534</v>
       </c>
       <c r="G9" t="n">
-        <v>207.6462842805581</v>
+        <v>39.35570072784917</v>
       </c>
       <c r="H9" t="n">
-        <v>104.2676850340409</v>
+        <v>39.35570072784917</v>
       </c>
       <c r="I9" t="n">
-        <v>39.35570072784916</v>
+        <v>39.35570072784917</v>
       </c>
       <c r="J9" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K9" t="n">
         <v>36.22166818534551</v>
@@ -4892,43 +4892,43 @@
         <v>119.1887676792232</v>
       </c>
       <c r="M9" t="n">
-        <v>230.1803012028977</v>
+        <v>230.1803012028976</v>
       </c>
       <c r="N9" t="n">
-        <v>287.4309731640697</v>
+        <v>287.4309731640694</v>
       </c>
       <c r="O9" t="n">
-        <v>387.4830745953196</v>
+        <v>387.4830745953194</v>
       </c>
       <c r="P9" t="n">
-        <v>448.4506404996948</v>
+        <v>448.4506404996945</v>
       </c>
       <c r="Q9" t="n">
-        <v>448.4506404996948</v>
+        <v>439.1005811301779</v>
       </c>
       <c r="R9" t="n">
-        <v>448.4506404996948</v>
+        <v>356.1757398283466</v>
       </c>
       <c r="S9" t="n">
-        <v>434.1365067551515</v>
+        <v>356.1757398283466</v>
       </c>
       <c r="T9" t="n">
-        <v>434.1365067551515</v>
+        <v>356.1757398283466</v>
       </c>
       <c r="U9" t="n">
-        <v>434.1365067551515</v>
+        <v>356.1757398283466</v>
       </c>
       <c r="V9" t="n">
-        <v>434.1365067551515</v>
+        <v>356.1757398283466</v>
       </c>
       <c r="W9" t="n">
-        <v>320.8913955178548</v>
+        <v>242.93062859105</v>
       </c>
       <c r="X9" t="n">
-        <v>207.6462842805581</v>
+        <v>242.93062859105</v>
       </c>
       <c r="Y9" t="n">
-        <v>207.6462842805581</v>
+        <v>242.93062859105</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="C10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="D10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="E10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="F10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="G10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="H10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="I10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="J10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="L10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="M10" t="n">
-        <v>8.969012809993897</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="N10" t="n">
-        <v>12.63101027343186</v>
+        <v>12.63101027343183</v>
       </c>
       <c r="O10" t="n">
-        <v>12.63101027343186</v>
+        <v>12.63101027343183</v>
       </c>
       <c r="P10" t="n">
-        <v>12.63101027343186</v>
+        <v>12.63101027343183</v>
       </c>
       <c r="Q10" t="n">
-        <v>12.63101027343186</v>
+        <v>12.63101027343183</v>
       </c>
       <c r="R10" t="n">
-        <v>12.63101027343186</v>
+        <v>12.63101027343183</v>
       </c>
       <c r="S10" t="n">
-        <v>12.63101027343186</v>
+        <v>12.63101027343183</v>
       </c>
       <c r="T10" t="n">
-        <v>12.63101027343186</v>
+        <v>12.63101027343183</v>
       </c>
       <c r="U10" t="n">
-        <v>12.63101027343186</v>
+        <v>12.63101027343183</v>
       </c>
       <c r="V10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="W10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="X10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993892</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>798.2341796004018</v>
+        <v>323.6013843530752</v>
       </c>
       <c r="C11" t="n">
-        <v>542.4692788751657</v>
+        <v>56.13393578323371</v>
       </c>
       <c r="D11" t="n">
-        <v>286.7043781499297</v>
+        <v>56.13393578323371</v>
       </c>
       <c r="E11" t="n">
-        <v>30.93947742469359</v>
+        <v>56.13393578323371</v>
       </c>
       <c r="F11" t="n">
-        <v>20.2565801374387</v>
+        <v>56.13393578323371</v>
       </c>
       <c r="G11" t="n">
-        <v>20.2565801374387</v>
+        <v>56.13393578323371</v>
       </c>
       <c r="H11" t="n">
-        <v>20.2565801374387</v>
+        <v>56.13393578323371</v>
       </c>
       <c r="I11" t="n">
-        <v>20.2565801374387</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="J11" t="n">
-        <v>45.38705923343241</v>
+        <v>49.6827215852511</v>
       </c>
       <c r="K11" t="n">
-        <v>133.7896512396351</v>
+        <v>143.1343023380383</v>
       </c>
       <c r="L11" t="n">
-        <v>280.3626455731799</v>
+        <v>295.9710136738462</v>
       </c>
       <c r="M11" t="n">
-        <v>475.1227808058534</v>
+        <v>497.700740960596</v>
       </c>
       <c r="N11" t="n">
-        <v>677.648147020877</v>
+        <v>707.3084745156149</v>
       </c>
       <c r="O11" t="n">
-        <v>855.5518461470224</v>
+        <v>891.8998522886247</v>
       </c>
       <c r="P11" t="n">
-        <v>972.8875365446859</v>
+        <v>1014.943321686473</v>
       </c>
       <c r="Q11" t="n">
-        <v>1012.829006871935</v>
+        <v>1059.171096336572</v>
       </c>
       <c r="R11" t="n">
-        <v>1012.829006871935</v>
+        <v>1059.171096336572</v>
       </c>
       <c r="S11" t="n">
-        <v>1012.829006871935</v>
+        <v>1059.171096336572</v>
       </c>
       <c r="T11" t="n">
-        <v>798.2341796004018</v>
+        <v>844.7535492734744</v>
       </c>
       <c r="U11" t="n">
-        <v>798.2341796004018</v>
+        <v>591.0688329229166</v>
       </c>
       <c r="V11" t="n">
-        <v>798.2341796004018</v>
+        <v>323.6013843530752</v>
       </c>
       <c r="W11" t="n">
-        <v>798.2341796004018</v>
+        <v>323.6013843530752</v>
       </c>
       <c r="X11" t="n">
-        <v>798.2341796004018</v>
+        <v>323.6013843530752</v>
       </c>
       <c r="Y11" t="n">
-        <v>798.2341796004018</v>
+        <v>323.6013843530752</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>194.7096094185657</v>
+        <v>243.9330858690605</v>
       </c>
       <c r="C12" t="n">
-        <v>20.2565801374387</v>
+        <v>243.9330858690605</v>
       </c>
       <c r="D12" t="n">
-        <v>20.2565801374387</v>
+        <v>243.9330858690605</v>
       </c>
       <c r="E12" t="n">
-        <v>20.2565801374387</v>
+        <v>243.9330858690605</v>
       </c>
       <c r="F12" t="n">
-        <v>20.2565801374387</v>
+        <v>213.1021022370045</v>
       </c>
       <c r="G12" t="n">
-        <v>20.2565801374387</v>
+        <v>75.7074336383117</v>
       </c>
       <c r="H12" t="n">
-        <v>20.2565801374387</v>
+        <v>75.7074336383117</v>
       </c>
       <c r="I12" t="n">
-        <v>20.2565801374387</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="J12" t="n">
-        <v>20.2565801374387</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="K12" t="n">
-        <v>91.83061903642624</v>
+        <v>96.18679738796779</v>
       </c>
       <c r="L12" t="n">
-        <v>234.3932882762799</v>
+        <v>243.3606328421824</v>
       </c>
       <c r="M12" t="n">
-        <v>420.1140672047603</v>
+        <v>434.4624252481626</v>
       </c>
       <c r="N12" t="n">
-        <v>625.1589674377997</v>
+        <v>645.0307583737459</v>
       </c>
       <c r="O12" t="n">
-        <v>790.5151971795225</v>
+        <v>815.4398501219416</v>
       </c>
       <c r="P12" t="n">
-        <v>903.8950833667035</v>
+        <v>932.8751035375005</v>
       </c>
       <c r="Q12" t="n">
-        <v>929.7673382725072</v>
+        <v>961.4582640387545</v>
       </c>
       <c r="R12" t="n">
-        <v>929.7673382725072</v>
+        <v>961.4582640387545</v>
       </c>
       <c r="S12" t="n">
-        <v>929.7673382725072</v>
+        <v>961.4582640387545</v>
       </c>
       <c r="T12" t="n">
-        <v>778.5367454091205</v>
+        <v>961.4582640387545</v>
       </c>
       <c r="U12" t="n">
-        <v>778.5367454091205</v>
+        <v>733.3225508290049</v>
       </c>
       <c r="V12" t="n">
-        <v>778.5367454091205</v>
+        <v>498.1704425972621</v>
       </c>
       <c r="W12" t="n">
-        <v>778.5367454091205</v>
+        <v>243.9330858690605</v>
       </c>
       <c r="X12" t="n">
-        <v>570.6852452035877</v>
+        <v>243.9330858690605</v>
       </c>
       <c r="Y12" t="n">
-        <v>362.9249464386338</v>
+        <v>243.9330858690605</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>133.5431668551981</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="C13" t="n">
-        <v>20.2565801374387</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="D13" t="n">
-        <v>20.2565801374387</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="E13" t="n">
-        <v>20.2565801374387</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="F13" t="n">
-        <v>20.2565801374387</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="G13" t="n">
-        <v>20.2565801374387</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="H13" t="n">
-        <v>20.2565801374387</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="I13" t="n">
-        <v>20.2565801374387</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="J13" t="n">
-        <v>20.2565801374387</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="K13" t="n">
-        <v>20.2565801374387</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="L13" t="n">
-        <v>47.30107877210197</v>
+        <v>50.87496806962248</v>
       </c>
       <c r="M13" t="n">
-        <v>79.07399367801942</v>
+        <v>85.43882342951889</v>
       </c>
       <c r="N13" t="n">
-        <v>117.9489455893789</v>
+        <v>127.0383534689203</v>
       </c>
       <c r="O13" t="n">
-        <v>133.5431668551981</v>
+        <v>145.1491636217351</v>
       </c>
       <c r="P13" t="n">
-        <v>133.5431668551981</v>
+        <v>145.1491636217351</v>
       </c>
       <c r="Q13" t="n">
-        <v>133.5431668551981</v>
+        <v>145.1491636217351</v>
       </c>
       <c r="R13" t="n">
-        <v>133.5431668551981</v>
+        <v>145.1491636217351</v>
       </c>
       <c r="S13" t="n">
-        <v>133.5431668551981</v>
+        <v>145.1491636217351</v>
       </c>
       <c r="T13" t="n">
-        <v>133.5431668551981</v>
+        <v>145.1491636217351</v>
       </c>
       <c r="U13" t="n">
-        <v>133.5431668551981</v>
+        <v>145.1491636217351</v>
       </c>
       <c r="V13" t="n">
-        <v>133.5431668551981</v>
+        <v>145.1491636217351</v>
       </c>
       <c r="W13" t="n">
-        <v>133.5431668551981</v>
+        <v>145.1491636217351</v>
       </c>
       <c r="X13" t="n">
-        <v>133.5431668551981</v>
+        <v>145.1491636217351</v>
       </c>
       <c r="Y13" t="n">
-        <v>133.5431668551981</v>
+        <v>21.18342192673144</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1012.829006871934</v>
+        <v>556.1183190664142</v>
       </c>
       <c r="C14" t="n">
-        <v>787.5512823131465</v>
+        <v>556.1183190664142</v>
       </c>
       <c r="D14" t="n">
-        <v>531.7863815879106</v>
+        <v>288.6508704965728</v>
       </c>
       <c r="E14" t="n">
-        <v>276.0214808626747</v>
+        <v>288.6508704965728</v>
       </c>
       <c r="F14" t="n">
-        <v>20.25658013743869</v>
+        <v>288.6508704965728</v>
       </c>
       <c r="G14" t="n">
-        <v>20.25658013743869</v>
+        <v>288.6508704965728</v>
       </c>
       <c r="H14" t="n">
-        <v>20.25658013743869</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="I14" t="n">
-        <v>20.25658013743869</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="J14" t="n">
-        <v>45.38705923343207</v>
+        <v>49.68272158525042</v>
       </c>
       <c r="K14" t="n">
-        <v>133.7896512396347</v>
+        <v>143.1343023380377</v>
       </c>
       <c r="L14" t="n">
-        <v>280.3626455731796</v>
+        <v>295.9710136738458</v>
       </c>
       <c r="M14" t="n">
-        <v>475.1227808058529</v>
+        <v>497.7007409605956</v>
       </c>
       <c r="N14" t="n">
-        <v>677.6481470208765</v>
+        <v>707.3084745156144</v>
       </c>
       <c r="O14" t="n">
-        <v>855.5518461470219</v>
+        <v>891.8998522886245</v>
       </c>
       <c r="P14" t="n">
-        <v>972.8875365446854</v>
+        <v>1014.943321686473</v>
       </c>
       <c r="Q14" t="n">
-        <v>1012.829006871934</v>
+        <v>1059.171096336572</v>
       </c>
       <c r="R14" t="n">
-        <v>1012.829006871934</v>
+        <v>1059.171096336572</v>
       </c>
       <c r="S14" t="n">
-        <v>1012.829006871934</v>
+        <v>1038.003314699353</v>
       </c>
       <c r="T14" t="n">
-        <v>1012.829006871934</v>
+        <v>823.5857676362556</v>
       </c>
       <c r="U14" t="n">
-        <v>1012.829006871934</v>
+        <v>823.5857676362556</v>
       </c>
       <c r="V14" t="n">
-        <v>1012.829006871934</v>
+        <v>823.5857676362556</v>
       </c>
       <c r="W14" t="n">
-        <v>1012.829006871934</v>
+        <v>823.5857676362556</v>
       </c>
       <c r="X14" t="n">
-        <v>1012.829006871934</v>
+        <v>823.5857676362556</v>
       </c>
       <c r="Y14" t="n">
-        <v>1012.829006871934</v>
+        <v>556.1183190664142</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20.25658013743869</v>
+        <v>56.45700010832354</v>
       </c>
       <c r="C15" t="n">
-        <v>20.25658013743869</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="D15" t="n">
-        <v>20.25658013743869</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="E15" t="n">
-        <v>20.25658013743869</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="F15" t="n">
-        <v>20.25658013743869</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="G15" t="n">
-        <v>20.25658013743869</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="H15" t="n">
-        <v>20.25658013743869</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="I15" t="n">
-        <v>20.25658013743869</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="J15" t="n">
-        <v>20.25658013743869</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="K15" t="n">
-        <v>91.83061903642624</v>
+        <v>96.18679738796781</v>
       </c>
       <c r="L15" t="n">
-        <v>234.3932882762799</v>
+        <v>243.3606328421825</v>
       </c>
       <c r="M15" t="n">
-        <v>420.1140672047603</v>
+        <v>434.4624252481627</v>
       </c>
       <c r="N15" t="n">
-        <v>625.1589674377997</v>
+        <v>645.0307583737462</v>
       </c>
       <c r="O15" t="n">
-        <v>790.5151971795225</v>
+        <v>815.4398501219418</v>
       </c>
       <c r="P15" t="n">
-        <v>903.8950833667035</v>
+        <v>932.8751035375008</v>
       </c>
       <c r="Q15" t="n">
-        <v>929.7673382725072</v>
+        <v>961.4582640387547</v>
       </c>
       <c r="R15" t="n">
-        <v>929.7673382725072</v>
+        <v>961.4582640387547</v>
       </c>
       <c r="S15" t="n">
-        <v>929.7673382725072</v>
+        <v>961.4582640387547</v>
       </c>
       <c r="T15" t="n">
-        <v>929.7673382725072</v>
+        <v>961.4582640387547</v>
       </c>
       <c r="U15" t="n">
-        <v>701.6301995123385</v>
+        <v>961.4582640387547</v>
       </c>
       <c r="V15" t="n">
-        <v>466.4780912805958</v>
+        <v>726.3061558070119</v>
       </c>
       <c r="W15" t="n">
-        <v>212.2407345523942</v>
+        <v>472.0687990788103</v>
       </c>
       <c r="X15" t="n">
-        <v>20.25658013743869</v>
+        <v>264.2172988732775</v>
       </c>
       <c r="Y15" t="n">
-        <v>20.25658013743869</v>
+        <v>56.45700010832354</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20.25658013743869</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="C16" t="n">
-        <v>20.25658013743869</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="D16" t="n">
-        <v>20.25658013743869</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="E16" t="n">
-        <v>20.25658013743869</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="F16" t="n">
-        <v>20.25658013743869</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="G16" t="n">
-        <v>20.25658013743869</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="H16" t="n">
-        <v>20.25658013743869</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="I16" t="n">
-        <v>20.25658013743869</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="J16" t="n">
-        <v>20.25658013743869</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="K16" t="n">
-        <v>20.25658013743869</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="L16" t="n">
-        <v>47.30107877210196</v>
+        <v>50.87496806962254</v>
       </c>
       <c r="M16" t="n">
-        <v>79.07399367801941</v>
+        <v>85.43882342951898</v>
       </c>
       <c r="N16" t="n">
-        <v>117.9489455893788</v>
+        <v>127.0383534689204</v>
       </c>
       <c r="O16" t="n">
-        <v>133.5431668551981</v>
+        <v>145.1491636217353</v>
       </c>
       <c r="P16" t="n">
-        <v>133.5431668551981</v>
+        <v>145.1491636217353</v>
       </c>
       <c r="Q16" t="n">
-        <v>133.5431668551981</v>
+        <v>145.1491636217353</v>
       </c>
       <c r="R16" t="n">
-        <v>133.5431668551981</v>
+        <v>145.1491636217353</v>
       </c>
       <c r="S16" t="n">
-        <v>133.5431668551981</v>
+        <v>145.1491636217353</v>
       </c>
       <c r="T16" t="n">
-        <v>133.5431668551981</v>
+        <v>145.1491636217353</v>
       </c>
       <c r="U16" t="n">
-        <v>133.5431668551981</v>
+        <v>145.1491636217353</v>
       </c>
       <c r="V16" t="n">
-        <v>20.25658013743869</v>
+        <v>145.1491636217353</v>
       </c>
       <c r="W16" t="n">
-        <v>20.25658013743869</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="X16" t="n">
-        <v>20.25658013743869</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="Y16" t="n">
-        <v>20.25658013743869</v>
+        <v>21.18342192673144</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1012.829006871935</v>
+        <v>288.650870496573</v>
       </c>
       <c r="C17" t="n">
-        <v>1012.829006871935</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="D17" t="n">
-        <v>1012.829006871935</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="E17" t="n">
-        <v>757.0641061466986</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="F17" t="n">
-        <v>501.2992054214626</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="G17" t="n">
-        <v>245.5343046962266</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="H17" t="n">
-        <v>20.25658013743869</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="I17" t="n">
-        <v>20.25658013743869</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="J17" t="n">
-        <v>45.3870592334321</v>
+        <v>49.6827215852507</v>
       </c>
       <c r="K17" t="n">
-        <v>133.7896512396347</v>
+        <v>143.1343023380379</v>
       </c>
       <c r="L17" t="n">
-        <v>280.3626455731796</v>
+        <v>295.971013673846</v>
       </c>
       <c r="M17" t="n">
-        <v>475.122780805853</v>
+        <v>497.7007409605957</v>
       </c>
       <c r="N17" t="n">
-        <v>677.6481470208765</v>
+        <v>707.3084745156149</v>
       </c>
       <c r="O17" t="n">
-        <v>855.5518461470219</v>
+        <v>891.8998522886249</v>
       </c>
       <c r="P17" t="n">
-        <v>972.8875365446856</v>
+        <v>1014.943321686474</v>
       </c>
       <c r="Q17" t="n">
-        <v>1012.829006871935</v>
+        <v>1059.171096336572</v>
       </c>
       <c r="R17" t="n">
-        <v>1012.829006871935</v>
+        <v>1059.171096336572</v>
       </c>
       <c r="S17" t="n">
-        <v>1012.829006871935</v>
+        <v>1059.171096336572</v>
       </c>
       <c r="T17" t="n">
-        <v>1012.829006871935</v>
+        <v>1059.171096336572</v>
       </c>
       <c r="U17" t="n">
-        <v>1012.829006871935</v>
+        <v>1059.171096336572</v>
       </c>
       <c r="V17" t="n">
-        <v>1012.829006871935</v>
+        <v>823.5857676362562</v>
       </c>
       <c r="W17" t="n">
-        <v>1012.829006871935</v>
+        <v>823.5857676362562</v>
       </c>
       <c r="X17" t="n">
-        <v>1012.829006871935</v>
+        <v>556.1183190664146</v>
       </c>
       <c r="Y17" t="n">
-        <v>1012.829006871935</v>
+        <v>556.1183190664146</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>609.9925574877941</v>
+        <v>180.420876932187</v>
       </c>
       <c r="C18" t="n">
-        <v>609.9925574877941</v>
+        <v>180.420876932187</v>
       </c>
       <c r="D18" t="n">
-        <v>461.0581478265428</v>
+        <v>180.420876932187</v>
       </c>
       <c r="E18" t="n">
-        <v>301.8206928210873</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="F18" t="n">
-        <v>157.672917102502</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="G18" t="n">
-        <v>20.25658013743869</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="H18" t="n">
-        <v>20.25658013743869</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="I18" t="n">
-        <v>20.25658013743869</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="J18" t="n">
-        <v>20.25658013743869</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="K18" t="n">
-        <v>91.83061903642624</v>
+        <v>96.18679738796783</v>
       </c>
       <c r="L18" t="n">
-        <v>234.3932882762799</v>
+        <v>243.3606328421825</v>
       </c>
       <c r="M18" t="n">
-        <v>420.1140672047603</v>
+        <v>434.4624252481628</v>
       </c>
       <c r="N18" t="n">
-        <v>625.1589674377997</v>
+        <v>645.0307583737462</v>
       </c>
       <c r="O18" t="n">
-        <v>790.5151971795225</v>
+        <v>815.4398501219418</v>
       </c>
       <c r="P18" t="n">
-        <v>903.8950833667035</v>
+        <v>932.8751035375008</v>
       </c>
       <c r="Q18" t="n">
-        <v>929.7673382725072</v>
+        <v>961.4582640387547</v>
       </c>
       <c r="R18" t="n">
-        <v>864.2299142159957</v>
+        <v>961.4582640387547</v>
       </c>
       <c r="S18" t="n">
-        <v>864.2299142159957</v>
+        <v>961.4582640387547</v>
       </c>
       <c r="T18" t="n">
-        <v>864.2299142159957</v>
+        <v>961.4582640387547</v>
       </c>
       <c r="U18" t="n">
-        <v>864.2299142159957</v>
+        <v>961.4582640387547</v>
       </c>
       <c r="V18" t="n">
-        <v>864.2299142159957</v>
+        <v>764.2480129227417</v>
       </c>
       <c r="W18" t="n">
-        <v>609.9925574877941</v>
+        <v>764.2480129227417</v>
       </c>
       <c r="X18" t="n">
-        <v>609.9925574877941</v>
+        <v>556.3965127172089</v>
       </c>
       <c r="Y18" t="n">
-        <v>609.9925574877941</v>
+        <v>348.636213952255</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20.25658013743869</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="C19" t="n">
-        <v>20.25658013743869</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="D19" t="n">
-        <v>20.25658013743869</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="E19" t="n">
-        <v>20.25658013743869</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="F19" t="n">
-        <v>20.25658013743869</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="G19" t="n">
-        <v>20.25658013743869</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="H19" t="n">
-        <v>20.25658013743869</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="I19" t="n">
-        <v>20.25658013743869</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="J19" t="n">
-        <v>20.25658013743869</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="K19" t="n">
-        <v>20.25658013743869</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="L19" t="n">
-        <v>47.30107877210197</v>
+        <v>50.87496806962255</v>
       </c>
       <c r="M19" t="n">
-        <v>79.07399367801942</v>
+        <v>85.43882342951898</v>
       </c>
       <c r="N19" t="n">
-        <v>117.9489455893789</v>
+        <v>127.0383534689204</v>
       </c>
       <c r="O19" t="n">
-        <v>133.5431668551981</v>
+        <v>145.1491636217353</v>
       </c>
       <c r="P19" t="n">
-        <v>133.5431668551981</v>
+        <v>145.1491636217353</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.5431668551981</v>
+        <v>145.1491636217353</v>
       </c>
       <c r="R19" t="n">
-        <v>133.5431668551981</v>
+        <v>145.1491636217353</v>
       </c>
       <c r="S19" t="n">
-        <v>133.5431668551981</v>
+        <v>145.1491636217353</v>
       </c>
       <c r="T19" t="n">
-        <v>20.25658013743869</v>
+        <v>145.1491636217353</v>
       </c>
       <c r="U19" t="n">
-        <v>20.25658013743869</v>
+        <v>145.1491636217353</v>
       </c>
       <c r="V19" t="n">
-        <v>20.25658013743869</v>
+        <v>145.1491636217353</v>
       </c>
       <c r="W19" t="n">
-        <v>20.25658013743869</v>
+        <v>145.1491636217353</v>
       </c>
       <c r="X19" t="n">
-        <v>20.25658013743869</v>
+        <v>145.1491636217353</v>
       </c>
       <c r="Y19" t="n">
-        <v>20.25658013743869</v>
+        <v>21.18342192673145</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>20.2565801374387</v>
+        <v>463.3421161865936</v>
       </c>
       <c r="C20" t="n">
-        <v>20.2565801374387</v>
+        <v>288.6508704965731</v>
       </c>
       <c r="D20" t="n">
-        <v>20.2565801374387</v>
+        <v>288.6508704965731</v>
       </c>
       <c r="E20" t="n">
-        <v>20.2565801374387</v>
+        <v>21.18342192673146</v>
       </c>
       <c r="F20" t="n">
-        <v>20.2565801374387</v>
+        <v>21.18342192673146</v>
       </c>
       <c r="G20" t="n">
-        <v>20.2565801374387</v>
+        <v>21.18342192673146</v>
       </c>
       <c r="H20" t="n">
-        <v>20.2565801374387</v>
+        <v>21.18342192673146</v>
       </c>
       <c r="I20" t="n">
-        <v>20.2565801374387</v>
+        <v>21.18342192673146</v>
       </c>
       <c r="J20" t="n">
-        <v>45.38705923343218</v>
+        <v>49.6827215852511</v>
       </c>
       <c r="K20" t="n">
-        <v>133.7896512396346</v>
+        <v>143.1343023380384</v>
       </c>
       <c r="L20" t="n">
-        <v>280.3626455731795</v>
+        <v>295.9710136738465</v>
       </c>
       <c r="M20" t="n">
-        <v>475.1227808058529</v>
+        <v>497.7007409605962</v>
       </c>
       <c r="N20" t="n">
-        <v>677.6481470208765</v>
+        <v>707.3084745156151</v>
       </c>
       <c r="O20" t="n">
-        <v>855.5518461470224</v>
+        <v>891.8998522886253</v>
       </c>
       <c r="P20" t="n">
-        <v>972.8875365446861</v>
+        <v>1014.943321686474</v>
       </c>
       <c r="Q20" t="n">
-        <v>1012.829006871935</v>
+        <v>1059.171096336573</v>
       </c>
       <c r="R20" t="n">
-        <v>1012.829006871935</v>
+        <v>998.277013326277</v>
       </c>
       <c r="S20" t="n">
-        <v>1012.829006871935</v>
+        <v>998.277013326277</v>
       </c>
       <c r="T20" t="n">
-        <v>798.2341796004021</v>
+        <v>998.277013326277</v>
       </c>
       <c r="U20" t="n">
-        <v>544.5462234059437</v>
+        <v>998.277013326277</v>
       </c>
       <c r="V20" t="n">
-        <v>288.7813226807076</v>
+        <v>998.277013326277</v>
       </c>
       <c r="W20" t="n">
-        <v>33.01642195547149</v>
+        <v>998.277013326277</v>
       </c>
       <c r="X20" t="n">
-        <v>20.2565801374387</v>
+        <v>998.277013326277</v>
       </c>
       <c r="Y20" t="n">
-        <v>20.2565801374387</v>
+        <v>730.8095647564353</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>61.73830734472006</v>
+        <v>259.0427642110072</v>
       </c>
       <c r="C21" t="n">
-        <v>61.73830734472006</v>
+        <v>259.0427642110072</v>
       </c>
       <c r="D21" t="n">
-        <v>61.73830734472006</v>
+        <v>259.0427642110072</v>
       </c>
       <c r="E21" t="n">
-        <v>61.73830734472006</v>
+        <v>259.0427642110072</v>
       </c>
       <c r="F21" t="n">
-        <v>20.2565801374387</v>
+        <v>259.0427642110072</v>
       </c>
       <c r="G21" t="n">
-        <v>20.2565801374387</v>
+        <v>121.6480956123144</v>
       </c>
       <c r="H21" t="n">
-        <v>20.2565801374387</v>
+        <v>21.18342192673146</v>
       </c>
       <c r="I21" t="n">
-        <v>20.2565801374387</v>
+        <v>21.18342192673146</v>
       </c>
       <c r="J21" t="n">
-        <v>20.2565801374387</v>
+        <v>21.18342192673146</v>
       </c>
       <c r="K21" t="n">
-        <v>91.83061903642626</v>
+        <v>96.18679738796783</v>
       </c>
       <c r="L21" t="n">
-        <v>234.39328827628</v>
+        <v>243.3606328421825</v>
       </c>
       <c r="M21" t="n">
-        <v>420.1140672047603</v>
+        <v>434.4624252481628</v>
       </c>
       <c r="N21" t="n">
-        <v>625.1589674377997</v>
+        <v>645.0307583737462</v>
       </c>
       <c r="O21" t="n">
-        <v>790.5151971795225</v>
+        <v>815.4398501219418</v>
       </c>
       <c r="P21" t="n">
-        <v>903.8950833667035</v>
+        <v>932.8751035375008</v>
       </c>
       <c r="Q21" t="n">
-        <v>929.7673382725072</v>
+        <v>961.4582640387547</v>
       </c>
       <c r="R21" t="n">
-        <v>929.7673382725072</v>
+        <v>897.2661794311042</v>
       </c>
       <c r="S21" t="n">
-        <v>929.7673382725072</v>
+        <v>897.2661794311042</v>
       </c>
       <c r="T21" t="n">
-        <v>732.8790545421643</v>
+        <v>897.2661794311042</v>
       </c>
       <c r="U21" t="n">
-        <v>504.7419157819956</v>
+        <v>748.4322291709516</v>
       </c>
       <c r="V21" t="n">
-        <v>269.5898075502529</v>
+        <v>513.2801209392089</v>
       </c>
       <c r="W21" t="n">
-        <v>269.5898075502529</v>
+        <v>259.0427642110072</v>
       </c>
       <c r="X21" t="n">
-        <v>61.73830734472006</v>
+        <v>259.0427642110072</v>
       </c>
       <c r="Y21" t="n">
-        <v>61.73830734472006</v>
+        <v>259.0427642110072</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20.2565801374387</v>
+        <v>21.18342192673146</v>
       </c>
       <c r="C22" t="n">
-        <v>20.2565801374387</v>
+        <v>21.18342192673146</v>
       </c>
       <c r="D22" t="n">
-        <v>20.2565801374387</v>
+        <v>21.18342192673146</v>
       </c>
       <c r="E22" t="n">
-        <v>20.2565801374387</v>
+        <v>21.18342192673146</v>
       </c>
       <c r="F22" t="n">
-        <v>20.2565801374387</v>
+        <v>21.18342192673146</v>
       </c>
       <c r="G22" t="n">
-        <v>20.2565801374387</v>
+        <v>21.18342192673146</v>
       </c>
       <c r="H22" t="n">
-        <v>20.2565801374387</v>
+        <v>21.18342192673146</v>
       </c>
       <c r="I22" t="n">
-        <v>20.2565801374387</v>
+        <v>21.18342192673146</v>
       </c>
       <c r="J22" t="n">
-        <v>20.2565801374387</v>
+        <v>21.18342192673146</v>
       </c>
       <c r="K22" t="n">
-        <v>20.2565801374387</v>
+        <v>21.18342192673146</v>
       </c>
       <c r="L22" t="n">
-        <v>47.30107877210197</v>
+        <v>50.87496806962255</v>
       </c>
       <c r="M22" t="n">
-        <v>79.07399367801942</v>
+        <v>85.43882342951898</v>
       </c>
       <c r="N22" t="n">
-        <v>117.9489455893789</v>
+        <v>127.0383534689204</v>
       </c>
       <c r="O22" t="n">
-        <v>133.5431668551981</v>
+        <v>145.1491636217353</v>
       </c>
       <c r="P22" t="n">
-        <v>133.5431668551981</v>
+        <v>145.1491636217353</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.5431668551981</v>
+        <v>145.1491636217353</v>
       </c>
       <c r="R22" t="n">
-        <v>133.5431668551981</v>
+        <v>145.1491636217353</v>
       </c>
       <c r="S22" t="n">
-        <v>133.5431668551981</v>
+        <v>21.18342192673146</v>
       </c>
       <c r="T22" t="n">
-        <v>20.2565801374387</v>
+        <v>21.18342192673146</v>
       </c>
       <c r="U22" t="n">
-        <v>20.2565801374387</v>
+        <v>21.18342192673146</v>
       </c>
       <c r="V22" t="n">
-        <v>20.2565801374387</v>
+        <v>21.18342192673146</v>
       </c>
       <c r="W22" t="n">
-        <v>20.2565801374387</v>
+        <v>21.18342192673146</v>
       </c>
       <c r="X22" t="n">
-        <v>20.2565801374387</v>
+        <v>21.18342192673146</v>
       </c>
       <c r="Y22" t="n">
-        <v>20.2565801374387</v>
+        <v>21.18342192673146</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>43.36919653809314</v>
+        <v>1494.029270266881</v>
       </c>
       <c r="C23" t="n">
-        <v>43.36919653809314</v>
+        <v>1125.06675332647</v>
       </c>
       <c r="D23" t="n">
-        <v>43.36919653809314</v>
+        <v>766.8010547197193</v>
       </c>
       <c r="E23" t="n">
-        <v>43.36919653809314</v>
+        <v>766.8010547197193</v>
       </c>
       <c r="F23" t="n">
-        <v>43.36919653809314</v>
+        <v>766.8010547197193</v>
       </c>
       <c r="G23" t="n">
-        <v>43.36919653809314</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H23" t="n">
         <v>43.36919653809314</v>
@@ -6016,25 +6016,25 @@
         <v>2168.459826904657</v>
       </c>
       <c r="S23" t="n">
-        <v>2168.459826904657</v>
+        <v>2078.699321947943</v>
       </c>
       <c r="T23" t="n">
-        <v>1958.285829056572</v>
+        <v>2078.699321947943</v>
       </c>
       <c r="U23" t="n">
-        <v>1877.405669452791</v>
+        <v>1825.092157610452</v>
       </c>
       <c r="V23" t="n">
-        <v>1546.342782109221</v>
+        <v>1494.029270266881</v>
       </c>
       <c r="W23" t="n">
-        <v>1193.574126839107</v>
+        <v>1494.029270266881</v>
       </c>
       <c r="X23" t="n">
-        <v>820.1083685780267</v>
+        <v>1494.029270266881</v>
       </c>
       <c r="Y23" t="n">
-        <v>429.9690366022149</v>
+        <v>1494.029270266881</v>
       </c>
     </row>
     <row r="24">
@@ -6095,10 +6095,10 @@
         <v>1766.22704733349</v>
       </c>
       <c r="S24" t="n">
-        <v>1627.262386835208</v>
+        <v>1713.850738162479</v>
       </c>
       <c r="T24" t="n">
-        <v>1432.552065309184</v>
+        <v>1519.140416636455</v>
       </c>
       <c r="U24" t="n">
         <v>1291.038826769719</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1859.672505807132</v>
+        <v>190.2591440360035</v>
       </c>
       <c r="C25" t="n">
-        <v>1859.672505807132</v>
+        <v>190.2591440360035</v>
       </c>
       <c r="D25" t="n">
-        <v>1859.672505807132</v>
+        <v>190.2591440360035</v>
       </c>
       <c r="E25" t="n">
-        <v>1859.672505807132</v>
+        <v>190.2591440360035</v>
       </c>
       <c r="F25" t="n">
-        <v>1859.672505807132</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="G25" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="H25" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="I25" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="J25" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="K25" t="n">
-        <v>1740.887338843872</v>
+        <v>92.7168589798155</v>
       </c>
       <c r="L25" t="n">
-        <v>1833.941154665951</v>
+        <v>185.7706748018946</v>
       </c>
       <c r="M25" t="n">
-        <v>1935.311639356791</v>
+        <v>287.1411594927339</v>
       </c>
       <c r="N25" t="n">
-        <v>2042.129286401804</v>
+        <v>393.958806537747</v>
       </c>
       <c r="O25" t="n">
-        <v>2120.479583467424</v>
+        <v>472.3091036033671</v>
       </c>
       <c r="P25" t="n">
-        <v>2168.459826904657</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="Q25" t="n">
-        <v>2168.459826904657</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="R25" t="n">
-        <v>2168.459826904657</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="S25" t="n">
-        <v>2168.459826904657</v>
+        <v>413.8630013433799</v>
       </c>
       <c r="T25" t="n">
-        <v>2168.459826904657</v>
+        <v>190.2591440360035</v>
       </c>
       <c r="U25" t="n">
-        <v>2168.459826904657</v>
+        <v>190.2591440360035</v>
       </c>
       <c r="V25" t="n">
-        <v>1913.77533869877</v>
+        <v>190.2591440360035</v>
       </c>
       <c r="W25" t="n">
-        <v>1859.672505807132</v>
+        <v>190.2591440360035</v>
       </c>
       <c r="X25" t="n">
-        <v>1859.672505807132</v>
+        <v>190.2591440360035</v>
       </c>
       <c r="Y25" t="n">
-        <v>1859.672505807132</v>
+        <v>190.2591440360035</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>401.6348951448437</v>
+        <v>1209.105870866357</v>
       </c>
       <c r="C26" t="n">
-        <v>401.6348951448437</v>
+        <v>840.1433539259449</v>
       </c>
       <c r="D26" t="n">
-        <v>43.36919653809314</v>
+        <v>840.1433539259449</v>
       </c>
       <c r="E26" t="n">
-        <v>43.36919653809314</v>
+        <v>454.3551013277007</v>
       </c>
       <c r="F26" t="n">
         <v>43.36919653809314</v>
@@ -6259,19 +6259,19 @@
         <v>1958.285829056572</v>
       </c>
       <c r="U26" t="n">
-        <v>1849.07152799542</v>
+        <v>1704.678664719082</v>
       </c>
       <c r="V26" t="n">
-        <v>1518.008640651849</v>
+        <v>1373.615777375511</v>
       </c>
       <c r="W26" t="n">
-        <v>1165.239985381735</v>
+        <v>1373.615777375511</v>
       </c>
       <c r="X26" t="n">
-        <v>791.7742271206554</v>
+        <v>1209.105870866357</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.6348951448437</v>
+        <v>1209.105870866357</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>175.490692336986</v>
+        <v>327.3467159978622</v>
       </c>
       <c r="C27" t="n">
-        <v>175.490692336986</v>
+        <v>192.3036061993444</v>
       </c>
       <c r="D27" t="n">
-        <v>175.490692336986</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="E27" t="n">
-        <v>175.490692336986</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="F27" t="n">
-        <v>175.490692336986</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="G27" t="n">
-        <v>175.490692336986</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="H27" t="n">
-        <v>80.03532540581919</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="I27" t="n">
         <v>43.36919653809314</v>
@@ -6329,28 +6329,28 @@
         <v>1766.22704733349</v>
       </c>
       <c r="R27" t="n">
-        <v>1766.22704733349</v>
+        <v>1734.238298972667</v>
       </c>
       <c r="S27" t="n">
-        <v>1627.262386835208</v>
+        <v>1595.273638474385</v>
       </c>
       <c r="T27" t="n">
-        <v>1432.552065309184</v>
+        <v>1400.563316948361</v>
       </c>
       <c r="U27" t="n">
-        <v>1248.707293287485</v>
+        <v>1400.563316948361</v>
       </c>
       <c r="V27" t="n">
-        <v>1013.555185055742</v>
+        <v>1165.411208716619</v>
       </c>
       <c r="W27" t="n">
-        <v>759.3178283275408</v>
+        <v>911.173851988417</v>
       </c>
       <c r="X27" t="n">
-        <v>551.466328122008</v>
+        <v>703.3223517828842</v>
       </c>
       <c r="Y27" t="n">
-        <v>343.706029357054</v>
+        <v>495.5620530179303</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1691.53967640215</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="C28" t="n">
-        <v>1691.53967640215</v>
+        <v>351.3531641126937</v>
       </c>
       <c r="D28" t="n">
-        <v>1691.53967640215</v>
+        <v>201.2365247003579</v>
       </c>
       <c r="E28" t="n">
-        <v>1691.53967640215</v>
+        <v>53.32343111796482</v>
       </c>
       <c r="F28" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="G28" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="H28" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="I28" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="J28" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="K28" t="n">
-        <v>1740.887338843872</v>
+        <v>92.7168589798155</v>
       </c>
       <c r="L28" t="n">
-        <v>1833.941154665951</v>
+        <v>185.7706748018946</v>
       </c>
       <c r="M28" t="n">
-        <v>1935.311639356791</v>
+        <v>287.1411594927339</v>
       </c>
       <c r="N28" t="n">
-        <v>2042.129286401804</v>
+        <v>393.958806537747</v>
       </c>
       <c r="O28" t="n">
-        <v>2120.479583467424</v>
+        <v>472.3091036033671</v>
       </c>
       <c r="P28" t="n">
-        <v>2168.459826904657</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="Q28" t="n">
-        <v>2168.459826904657</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="R28" t="n">
-        <v>2168.459826904657</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="S28" t="n">
-        <v>2168.459826904657</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="T28" t="n">
-        <v>2168.459826904657</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="U28" t="n">
-        <v>2168.459826904657</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="V28" t="n">
-        <v>1913.77533869877</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="W28" t="n">
-        <v>1691.53967640215</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="X28" t="n">
-        <v>1691.53967640215</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="Y28" t="n">
-        <v>1691.53967640215</v>
+        <v>520.2893470406005</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>798.6856643201875</v>
+        <v>1536.052658116077</v>
       </c>
       <c r="C29" t="n">
-        <v>429.7231473797758</v>
+        <v>1536.052658116077</v>
       </c>
       <c r="D29" t="n">
-        <v>429.7231473797758</v>
+        <v>1177.786959509327</v>
       </c>
       <c r="E29" t="n">
-        <v>429.7231473797758</v>
+        <v>1177.786959509327</v>
       </c>
       <c r="F29" t="n">
-        <v>429.7231473797758</v>
+        <v>766.8010547197193</v>
       </c>
       <c r="G29" t="n">
-        <v>429.7231473797758</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H29" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="I29" t="n">
         <v>43.36919653809314</v>
@@ -6496,19 +6496,19 @@
         <v>1958.285829056572</v>
       </c>
       <c r="U29" t="n">
-        <v>1915.059409827193</v>
+        <v>1958.285829056572</v>
       </c>
       <c r="V29" t="n">
-        <v>1915.059409827193</v>
+        <v>1958.285829056572</v>
       </c>
       <c r="W29" t="n">
-        <v>1562.290754557079</v>
+        <v>1958.285829056572</v>
       </c>
       <c r="X29" t="n">
-        <v>1188.824996295999</v>
+        <v>1584.820070795492</v>
       </c>
       <c r="Y29" t="n">
-        <v>798.6856643201875</v>
+        <v>1536.052658116077</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>809.404642243926</v>
+        <v>217.8222258192202</v>
       </c>
       <c r="C30" t="n">
-        <v>634.951612962799</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="D30" t="n">
-        <v>486.0172033015477</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="E30" t="n">
-        <v>326.7797482960922</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="F30" t="n">
-        <v>180.2451903229772</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="G30" t="n">
         <v>43.36919653809314</v>
@@ -6569,25 +6569,25 @@
         <v>1766.22704733349</v>
       </c>
       <c r="S30" t="n">
-        <v>1766.22704733349</v>
+        <v>1627.262386835208</v>
       </c>
       <c r="T30" t="n">
-        <v>1766.22704733349</v>
+        <v>1432.552065309184</v>
       </c>
       <c r="U30" t="n">
-        <v>1674.769742988892</v>
+        <v>1204.450475442448</v>
       </c>
       <c r="V30" t="n">
-        <v>1439.61763475715</v>
+        <v>969.2983672107052</v>
       </c>
       <c r="W30" t="n">
-        <v>1185.380278028948</v>
+        <v>715.0610104825037</v>
       </c>
       <c r="X30" t="n">
-        <v>1185.380278028948</v>
+        <v>507.2095102769708</v>
       </c>
       <c r="Y30" t="n">
-        <v>977.6199792639941</v>
+        <v>299.4492115120169</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>292.2997961425832</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="C31" t="n">
-        <v>292.2997961425832</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="D31" t="n">
-        <v>142.1831567302475</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="E31" t="n">
-        <v>142.1831567302475</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="F31" t="n">
-        <v>142.1831567302475</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="G31" t="n">
-        <v>142.1831567302475</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="H31" t="n">
-        <v>142.1831567302475</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="I31" t="n">
-        <v>61.70688273934479</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="J31" t="n">
         <v>43.36919653809314</v>
@@ -6651,22 +6651,22 @@
         <v>520.2893470406005</v>
       </c>
       <c r="T31" t="n">
-        <v>520.2893470406005</v>
+        <v>296.6854897332241</v>
       </c>
       <c r="U31" t="n">
-        <v>520.2893470406005</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="V31" t="n">
-        <v>520.2893470406005</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="W31" t="n">
-        <v>520.2893470406005</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="X31" t="n">
-        <v>292.2997961425832</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="Y31" t="n">
-        <v>292.2997961425832</v>
+        <v>43.36919653809314</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1391.720654864723</v>
+        <v>764.6477322661528</v>
       </c>
       <c r="C32" t="n">
-        <v>1022.758137924312</v>
+        <v>764.6477322661528</v>
       </c>
       <c r="D32" t="n">
-        <v>1022.758137924312</v>
+        <v>764.6477322661528</v>
       </c>
       <c r="E32" t="n">
-        <v>1022.758137924312</v>
+        <v>764.6477322661528</v>
       </c>
       <c r="F32" t="n">
-        <v>611.7722331347043</v>
+        <v>353.6618274765453</v>
       </c>
       <c r="G32" t="n">
-        <v>350.7700094231265</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="H32" t="n">
         <v>43.36919653809314</v>
@@ -6733,19 +6733,19 @@
         <v>2168.459826904657</v>
       </c>
       <c r="U32" t="n">
-        <v>2168.459826904657</v>
+        <v>1914.852662567166</v>
       </c>
       <c r="V32" t="n">
-        <v>2168.459826904657</v>
+        <v>1914.852662567166</v>
       </c>
       <c r="W32" t="n">
-        <v>2168.459826904657</v>
+        <v>1914.852662567166</v>
       </c>
       <c r="X32" t="n">
-        <v>2168.459826904657</v>
+        <v>1541.386904306086</v>
       </c>
       <c r="Y32" t="n">
-        <v>1778.320494928845</v>
+        <v>1151.247572330275</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>366.7566354804715</v>
+        <v>464.908856516255</v>
       </c>
       <c r="C33" t="n">
-        <v>192.3036061993444</v>
+        <v>464.908856516255</v>
       </c>
       <c r="D33" t="n">
-        <v>43.36919653809314</v>
+        <v>315.9744468550037</v>
       </c>
       <c r="E33" t="n">
-        <v>43.36919653809314</v>
+        <v>226.5698833789342</v>
       </c>
       <c r="F33" t="n">
-        <v>43.36919653809314</v>
+        <v>80.03532540581919</v>
       </c>
       <c r="G33" t="n">
-        <v>43.36919653809314</v>
+        <v>80.03532540581919</v>
       </c>
       <c r="H33" t="n">
-        <v>43.36919653809314</v>
+        <v>80.03532540581919</v>
       </c>
       <c r="I33" t="n">
         <v>43.36919653809314</v>
@@ -6809,22 +6809,22 @@
         <v>1766.22704733349</v>
       </c>
       <c r="T33" t="n">
-        <v>1571.516725807466</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="U33" t="n">
-        <v>1439.97323643097</v>
+        <v>1538.125457466754</v>
       </c>
       <c r="V33" t="n">
-        <v>1204.821128199228</v>
+        <v>1302.973349235011</v>
       </c>
       <c r="W33" t="n">
-        <v>950.5837714710262</v>
+        <v>1048.73599250681</v>
       </c>
       <c r="X33" t="n">
-        <v>742.7322712654934</v>
+        <v>840.8844923012769</v>
       </c>
       <c r="Y33" t="n">
-        <v>534.9719725005396</v>
+        <v>633.124193536323</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2168.459826904657</v>
+        <v>211.5020259430748</v>
       </c>
       <c r="C34" t="n">
-        <v>1999.52364397675</v>
+        <v>211.5020259430748</v>
       </c>
       <c r="D34" t="n">
-        <v>1999.52364397675</v>
+        <v>211.5020259430748</v>
       </c>
       <c r="E34" t="n">
-        <v>1851.610550394357</v>
+        <v>211.5020259430748</v>
       </c>
       <c r="F34" t="n">
-        <v>1704.720602896447</v>
+        <v>211.5020259430748</v>
       </c>
       <c r="G34" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="H34" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="I34" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="J34" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="K34" t="n">
-        <v>1740.887338843872</v>
+        <v>92.7168589798155</v>
       </c>
       <c r="L34" t="n">
-        <v>1833.941154665951</v>
+        <v>185.7706748018946</v>
       </c>
       <c r="M34" t="n">
-        <v>1935.311639356791</v>
+        <v>287.1411594927339</v>
       </c>
       <c r="N34" t="n">
-        <v>2042.129286401804</v>
+        <v>393.958806537747</v>
       </c>
       <c r="O34" t="n">
-        <v>2120.479583467424</v>
+        <v>472.3091036033671</v>
       </c>
       <c r="P34" t="n">
-        <v>2168.459826904657</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="Q34" t="n">
-        <v>2168.459826904657</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="R34" t="n">
-        <v>2168.459826904657</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="S34" t="n">
-        <v>2168.459826904657</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="T34" t="n">
-        <v>2168.459826904657</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="U34" t="n">
-        <v>2168.459826904657</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="V34" t="n">
-        <v>2168.459826904657</v>
+        <v>265.6048588347137</v>
       </c>
       <c r="W34" t="n">
-        <v>2168.459826904657</v>
+        <v>265.6048588347137</v>
       </c>
       <c r="X34" t="n">
-        <v>2168.459826904657</v>
+        <v>265.6048588347137</v>
       </c>
       <c r="Y34" t="n">
-        <v>2168.459826904657</v>
+        <v>265.6048588347137</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1293.417184396862</v>
+        <v>1256.174399222538</v>
       </c>
       <c r="C35" t="n">
-        <v>1293.417184396862</v>
+        <v>1256.174399222538</v>
       </c>
       <c r="D35" t="n">
-        <v>1293.417184396862</v>
+        <v>1256.174399222538</v>
       </c>
       <c r="E35" t="n">
-        <v>907.6289317986177</v>
+        <v>870.3861466242935</v>
       </c>
       <c r="F35" t="n">
-        <v>496.6430270090102</v>
+        <v>459.4002418346859</v>
       </c>
       <c r="G35" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="H35" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="I35" t="n">
         <v>43.36919653809314</v>
@@ -6970,19 +6970,19 @@
         <v>2036.325171642788</v>
       </c>
       <c r="U35" t="n">
-        <v>2036.325171642788</v>
+        <v>1782.718007305297</v>
       </c>
       <c r="V35" t="n">
-        <v>2036.325171642788</v>
+        <v>1646.313731198349</v>
       </c>
       <c r="W35" t="n">
-        <v>1683.556516372674</v>
+        <v>1646.313731198349</v>
       </c>
       <c r="X35" t="n">
-        <v>1683.556516372674</v>
+        <v>1646.313731198349</v>
       </c>
       <c r="Y35" t="n">
-        <v>1293.417184396862</v>
+        <v>1256.174399222538</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>693.0104463829907</v>
+        <v>672.7603567217877</v>
       </c>
       <c r="C36" t="n">
-        <v>518.5574171018637</v>
+        <v>498.3073274406607</v>
       </c>
       <c r="D36" t="n">
-        <v>369.6230074406125</v>
+        <v>498.3073274406607</v>
       </c>
       <c r="E36" t="n">
-        <v>210.385552435157</v>
+        <v>339.0698724352052</v>
       </c>
       <c r="F36" t="n">
-        <v>63.85099446204194</v>
+        <v>192.5353144620902</v>
       </c>
       <c r="G36" t="n">
-        <v>43.36919653809314</v>
+        <v>55.65932067720615</v>
       </c>
       <c r="H36" t="n">
         <v>43.36919653809314</v>
@@ -7049,19 +7049,19 @@
         <v>1766.22704733349</v>
       </c>
       <c r="U36" t="n">
-        <v>1766.22704733349</v>
+        <v>1538.125457466754</v>
       </c>
       <c r="V36" t="n">
-        <v>1531.074939101747</v>
+        <v>1302.973349235011</v>
       </c>
       <c r="W36" t="n">
-        <v>1276.837582373546</v>
+        <v>1048.73599250681</v>
       </c>
       <c r="X36" t="n">
-        <v>1068.986082168013</v>
+        <v>1048.73599250681</v>
       </c>
       <c r="Y36" t="n">
-        <v>861.2257834030588</v>
+        <v>840.9756937418558</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="C37" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="D37" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="E37" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="F37" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="G37" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="H37" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="I37" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="J37" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="K37" t="n">
-        <v>1740.887338843872</v>
+        <v>92.7168589798155</v>
       </c>
       <c r="L37" t="n">
-        <v>1833.941154665951</v>
+        <v>185.7706748018946</v>
       </c>
       <c r="M37" t="n">
-        <v>1935.311639356791</v>
+        <v>287.1411594927339</v>
       </c>
       <c r="N37" t="n">
-        <v>2042.129286401804</v>
+        <v>393.958806537747</v>
       </c>
       <c r="O37" t="n">
-        <v>2120.479583467424</v>
+        <v>472.3091036033671</v>
       </c>
       <c r="P37" t="n">
-        <v>2168.459826904657</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="Q37" t="n">
-        <v>2168.459826904657</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="R37" t="n">
-        <v>2168.459826904657</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="S37" t="n">
-        <v>2168.459826904657</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="T37" t="n">
-        <v>2168.459826904657</v>
+        <v>332.7863665750538</v>
       </c>
       <c r="U37" t="n">
-        <v>2168.459826904657</v>
+        <v>332.7863665750538</v>
       </c>
       <c r="V37" t="n">
-        <v>2168.459826904657</v>
+        <v>332.7863665750538</v>
       </c>
       <c r="W37" t="n">
-        <v>1919.529227300167</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="X37" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="Y37" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809314</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1391.720654864723</v>
+        <v>1335.127537179187</v>
       </c>
       <c r="C38" t="n">
-        <v>1391.720654864723</v>
+        <v>1335.127537179187</v>
       </c>
       <c r="D38" t="n">
-        <v>1033.454956257973</v>
+        <v>1335.127537179187</v>
       </c>
       <c r="E38" t="n">
-        <v>1033.454956257973</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="F38" t="n">
-        <v>622.4690514683655</v>
+        <v>538.3533797913352</v>
       </c>
       <c r="G38" t="n">
-        <v>350.7700094231265</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H38" t="n">
-        <v>43.36919653809314</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I38" t="n">
         <v>43.36919653809314</v>
@@ -7201,25 +7201,25 @@
         <v>2168.459826904657</v>
       </c>
       <c r="S38" t="n">
-        <v>2168.459826904657</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="T38" t="n">
-        <v>2168.459826904657</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="U38" t="n">
-        <v>2168.459826904657</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="V38" t="n">
-        <v>2168.459826904657</v>
+        <v>1721.727377243309</v>
       </c>
       <c r="W38" t="n">
-        <v>2168.459826904657</v>
+        <v>1721.727377243309</v>
       </c>
       <c r="X38" t="n">
-        <v>2168.459826904657</v>
+        <v>1721.727377243309</v>
       </c>
       <c r="Y38" t="n">
-        <v>1778.320494928845</v>
+        <v>1721.727377243309</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>338.8381641724594</v>
+        <v>359.3354643586848</v>
       </c>
       <c r="C39" t="n">
-        <v>338.8381641724594</v>
+        <v>184.8824350775577</v>
       </c>
       <c r="D39" t="n">
-        <v>189.9037545112082</v>
+        <v>184.8824350775577</v>
       </c>
       <c r="E39" t="n">
-        <v>189.9037545112082</v>
+        <v>184.8824350775577</v>
       </c>
       <c r="F39" t="n">
-        <v>43.36919653809314</v>
+        <v>175.490692336986</v>
       </c>
       <c r="G39" t="n">
-        <v>43.36919653809314</v>
+        <v>175.490692336986</v>
       </c>
       <c r="H39" t="n">
-        <v>43.36919653809314</v>
+        <v>80.03532540581919</v>
       </c>
       <c r="I39" t="n">
         <v>43.36919653809314</v>
@@ -7277,28 +7277,28 @@
         <v>1766.22704733349</v>
       </c>
       <c r="R39" t="n">
-        <v>1734.238298972667</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="S39" t="n">
-        <v>1595.273638474385</v>
+        <v>1627.262386835208</v>
       </c>
       <c r="T39" t="n">
-        <v>1471.941017969626</v>
+        <v>1432.552065309184</v>
       </c>
       <c r="U39" t="n">
-        <v>1243.83942810289</v>
+        <v>1432.552065309184</v>
       </c>
       <c r="V39" t="n">
-        <v>1008.687319871148</v>
+        <v>1197.399957077441</v>
       </c>
       <c r="W39" t="n">
-        <v>754.4499631429462</v>
+        <v>943.1626003492395</v>
       </c>
       <c r="X39" t="n">
-        <v>546.5984629374134</v>
+        <v>735.3111001437067</v>
       </c>
       <c r="Y39" t="n">
-        <v>338.8381641724594</v>
+        <v>527.5508013787528</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>303.6661428091322</v>
+        <v>321.1098614248269</v>
       </c>
       <c r="C40" t="n">
-        <v>303.6661428091322</v>
+        <v>321.1098614248269</v>
       </c>
       <c r="D40" t="n">
-        <v>303.6661428091322</v>
+        <v>190.2591440360035</v>
       </c>
       <c r="E40" t="n">
-        <v>303.6661428091322</v>
+        <v>190.2591440360035</v>
       </c>
       <c r="F40" t="n">
-        <v>303.6661428091322</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="G40" t="n">
-        <v>303.6661428091322</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="H40" t="n">
-        <v>153.625929312925</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="I40" t="n">
         <v>43.36919653809314</v>
@@ -7353,31 +7353,31 @@
         <v>520.2893470406005</v>
       </c>
       <c r="Q40" t="n">
-        <v>497.4664265514537</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="R40" t="n">
-        <v>388.3019303235359</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="S40" t="n">
-        <v>303.6661428091322</v>
+        <v>321.1098614248269</v>
       </c>
       <c r="T40" t="n">
-        <v>303.6661428091322</v>
+        <v>321.1098614248269</v>
       </c>
       <c r="U40" t="n">
-        <v>303.6661428091322</v>
+        <v>321.1098614248269</v>
       </c>
       <c r="V40" t="n">
-        <v>303.6661428091322</v>
+        <v>321.1098614248269</v>
       </c>
       <c r="W40" t="n">
-        <v>303.6661428091322</v>
+        <v>321.1098614248269</v>
       </c>
       <c r="X40" t="n">
-        <v>303.6661428091322</v>
+        <v>321.1098614248269</v>
       </c>
       <c r="Y40" t="n">
-        <v>303.6661428091322</v>
+        <v>321.1098614248269</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1781.859986840535</v>
+        <v>787.4231477430878</v>
       </c>
       <c r="C41" t="n">
-        <v>1412.897469900123</v>
+        <v>787.4231477430878</v>
       </c>
       <c r="D41" t="n">
-        <v>1054.631771293373</v>
+        <v>429.1574491363374</v>
       </c>
       <c r="E41" t="n">
-        <v>668.8435186951288</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="F41" t="n">
-        <v>257.8576139055212</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="G41" t="n">
         <v>43.36919653809314</v>
@@ -7444,19 +7444,19 @@
         <v>2168.459826904657</v>
       </c>
       <c r="U41" t="n">
-        <v>2168.459826904657</v>
+        <v>1914.852662567166</v>
       </c>
       <c r="V41" t="n">
-        <v>2168.459826904657</v>
+        <v>1583.789775223595</v>
       </c>
       <c r="W41" t="n">
-        <v>2168.459826904657</v>
+        <v>1231.021119953481</v>
       </c>
       <c r="X41" t="n">
-        <v>2168.459826904657</v>
+        <v>1177.5624797189</v>
       </c>
       <c r="Y41" t="n">
-        <v>2168.459826904657</v>
+        <v>787.4231477430878</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>366.7566354804715</v>
+        <v>671.6177418305251</v>
       </c>
       <c r="C42" t="n">
-        <v>192.3036061993444</v>
+        <v>671.6177418305251</v>
       </c>
       <c r="D42" t="n">
-        <v>43.36919653809314</v>
+        <v>522.6833321692739</v>
       </c>
       <c r="E42" t="n">
-        <v>43.36919653809314</v>
+        <v>363.4458771638183</v>
       </c>
       <c r="F42" t="n">
-        <v>43.36919653809314</v>
+        <v>216.9113191907032</v>
       </c>
       <c r="G42" t="n">
-        <v>43.36919653809314</v>
+        <v>80.03532540581919</v>
       </c>
       <c r="H42" t="n">
-        <v>43.36919653809314</v>
+        <v>80.03532540581919</v>
       </c>
       <c r="I42" t="n">
         <v>43.36919653809314</v>
@@ -7514,28 +7514,28 @@
         <v>1766.22704733349</v>
       </c>
       <c r="R42" t="n">
-        <v>1734.238298972667</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="S42" t="n">
-        <v>1595.273638474385</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="T42" t="n">
-        <v>1400.563316948361</v>
+        <v>1571.516725807466</v>
       </c>
       <c r="U42" t="n">
-        <v>1185.735879702769</v>
+        <v>1509.682234549281</v>
       </c>
       <c r="V42" t="n">
-        <v>950.5837714710262</v>
+        <v>1509.682234549281</v>
       </c>
       <c r="W42" t="n">
-        <v>950.5837714710262</v>
+        <v>1255.44487782108</v>
       </c>
       <c r="X42" t="n">
-        <v>742.7322712654934</v>
+        <v>1047.593377615547</v>
       </c>
       <c r="Y42" t="n">
-        <v>534.9719725005396</v>
+        <v>839.8330788505932</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>490.1366584153656</v>
+        <v>211.5020259430748</v>
       </c>
       <c r="C43" t="n">
-        <v>490.1366584153656</v>
+        <v>211.5020259430748</v>
       </c>
       <c r="D43" t="n">
-        <v>490.1366584153656</v>
+        <v>211.5020259430748</v>
       </c>
       <c r="E43" t="n">
-        <v>490.1366584153656</v>
+        <v>211.5020259430748</v>
       </c>
       <c r="F43" t="n">
-        <v>490.1366584153656</v>
+        <v>211.5020259430748</v>
       </c>
       <c r="G43" t="n">
-        <v>322.0038290103839</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="H43" t="n">
-        <v>171.9636155141766</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="I43" t="n">
-        <v>61.70688273934479</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="J43" t="n">
         <v>43.36919653809314</v>
@@ -7590,31 +7590,31 @@
         <v>520.2893470406005</v>
       </c>
       <c r="Q43" t="n">
-        <v>497.4664265514537</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="R43" t="n">
-        <v>490.1366584153656</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="S43" t="n">
-        <v>490.1366584153656</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="T43" t="n">
-        <v>490.1366584153656</v>
+        <v>296.6854897332241</v>
       </c>
       <c r="U43" t="n">
-        <v>490.1366584153656</v>
+        <v>211.5020259430748</v>
       </c>
       <c r="V43" t="n">
-        <v>490.1366584153656</v>
+        <v>211.5020259430748</v>
       </c>
       <c r="W43" t="n">
-        <v>490.1366584153656</v>
+        <v>211.5020259430748</v>
       </c>
       <c r="X43" t="n">
-        <v>490.1366584153656</v>
+        <v>211.5020259430748</v>
       </c>
       <c r="Y43" t="n">
-        <v>490.1366584153656</v>
+        <v>211.5020259430748</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>870.3861466242935</v>
+        <v>1597.614362171456</v>
       </c>
       <c r="C44" t="n">
-        <v>870.3861466242935</v>
+        <v>1228.651845231044</v>
       </c>
       <c r="D44" t="n">
         <v>870.3861466242935</v>
@@ -7678,22 +7678,22 @@
         <v>2168.459826904657</v>
       </c>
       <c r="T44" t="n">
-        <v>1958.285829056572</v>
+        <v>1984.214202235577</v>
       </c>
       <c r="U44" t="n">
-        <v>1927.683447499058</v>
+        <v>1984.214202235577</v>
       </c>
       <c r="V44" t="n">
-        <v>1596.620560155488</v>
+        <v>1984.214202235577</v>
       </c>
       <c r="W44" t="n">
-        <v>1243.851904885373</v>
+        <v>1984.214202235577</v>
       </c>
       <c r="X44" t="n">
-        <v>870.3861466242935</v>
+        <v>1984.214202235577</v>
       </c>
       <c r="Y44" t="n">
-        <v>870.3861466242935</v>
+        <v>1984.214202235577</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>672.528648459042</v>
+        <v>406.4251236494765</v>
       </c>
       <c r="C45" t="n">
-        <v>498.075619177915</v>
+        <v>231.9720943683494</v>
       </c>
       <c r="D45" t="n">
-        <v>349.1412095166637</v>
+        <v>83.03768470709818</v>
       </c>
       <c r="E45" t="n">
-        <v>189.9037545112082</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="F45" t="n">
         <v>43.36919653809314</v>
@@ -7751,28 +7751,28 @@
         <v>1766.22704733349</v>
       </c>
       <c r="R45" t="n">
-        <v>1766.22704733349</v>
+        <v>1734.238298972667</v>
       </c>
       <c r="S45" t="n">
-        <v>1627.262386835208</v>
+        <v>1734.238298972667</v>
       </c>
       <c r="T45" t="n">
-        <v>1432.552065309184</v>
+        <v>1539.527977446643</v>
       </c>
       <c r="U45" t="n">
-        <v>1256.355784449597</v>
+        <v>1311.426387579907</v>
       </c>
       <c r="V45" t="n">
-        <v>1256.355784449597</v>
+        <v>1076.274279348165</v>
       </c>
       <c r="W45" t="n">
-        <v>1256.355784449597</v>
+        <v>822.0369226199632</v>
       </c>
       <c r="X45" t="n">
-        <v>1048.504284244064</v>
+        <v>614.1854224144304</v>
       </c>
       <c r="Y45" t="n">
-        <v>840.7439854791101</v>
+        <v>406.4251236494765</v>
       </c>
     </row>
     <row r="46">
@@ -7836,16 +7836,16 @@
         <v>520.2893470406005</v>
       </c>
       <c r="T46" t="n">
-        <v>520.2893470406005</v>
+        <v>296.6854897332241</v>
       </c>
       <c r="U46" t="n">
-        <v>520.2893470406005</v>
+        <v>191.2822901204863</v>
       </c>
       <c r="V46" t="n">
-        <v>419.2718410185036</v>
+        <v>191.2822901204863</v>
       </c>
       <c r="W46" t="n">
-        <v>419.2718410185036</v>
+        <v>191.2822901204863</v>
       </c>
       <c r="X46" t="n">
         <v>191.2822901204863</v>
@@ -22549,10 +22549,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>363.4246355629722</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>304.8880345935584</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>332.1353630451372</v>
@@ -22561,10 +22561,10 @@
         <v>357.0810387145868</v>
       </c>
       <c r="G2" t="n">
-        <v>413.707320657778</v>
+        <v>363.9123136306533</v>
       </c>
       <c r="H2" t="n">
-        <v>323.1357392253592</v>
+        <v>321.2874830173239</v>
       </c>
       <c r="I2" t="n">
         <v>148.9685811771479</v>
@@ -22643,7 +22643,7 @@
         <v>136.4898938890125</v>
       </c>
       <c r="H3" t="n">
-        <v>103.9912405093721</v>
+        <v>54.19623348224745</v>
       </c>
       <c r="I3" t="n">
         <v>70.13228042782632</v>
@@ -22679,7 +22679,7 @@
         <v>155.8274931817798</v>
       </c>
       <c r="T3" t="n">
-        <v>152.864585676435</v>
+        <v>196.7240278659264</v>
       </c>
       <c r="U3" t="n">
         <v>176.0902156279161</v>
@@ -22688,10 +22688,10 @@
         <v>183.0055801223006</v>
       </c>
       <c r="W3" t="n">
-        <v>201.899976133795</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>161.9135430139861</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22798,16 +22798,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.4631744246258</v>
+        <v>340.1081206625406</v>
       </c>
       <c r="H5" t="n">
-        <v>320.6353766150897</v>
+        <v>321.7552365603931</v>
       </c>
       <c r="I5" t="n">
-        <v>139.5561335235496</v>
+        <v>143.7717713159392</v>
       </c>
       <c r="J5" t="n">
-        <v>24.91528667358037</v>
+        <v>34.19605933636038</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,25 +22828,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>35.46192228085542</v>
       </c>
       <c r="R5" t="n">
-        <v>7.366133540830873</v>
+        <v>106.8999125420449</v>
       </c>
       <c r="S5" t="n">
-        <v>74.43607637216456</v>
+        <v>169.5927926334236</v>
       </c>
       <c r="T5" t="n">
-        <v>122.3782128463251</v>
+        <v>142.0574311576957</v>
       </c>
       <c r="U5" t="n">
-        <v>193.2327717109778</v>
+        <v>177.7428339618397</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>311.6708917067276</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22865,7 +22865,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>129.8120737120445</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22877,16 +22877,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>43.69431484884211</v>
+        <v>62.95336872557376</v>
       </c>
       <c r="H6" t="n">
-        <v>10.06468283495377</v>
+        <v>29.83027830940662</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.64908349938912</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>39.37486489346175</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22907,25 +22907,25 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>14.3427387906227</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.767263081054054</v>
+        <v>88.20200265662029</v>
       </c>
       <c r="S6" t="n">
-        <v>153.4011028494393</v>
+        <v>154.4878321636994</v>
       </c>
       <c r="T6" t="n">
-        <v>196.197498299121</v>
+        <v>196.4333198433488</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8766285924705</v>
+        <v>225.8804776927571</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>178.2305814241922</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22956,49 +22956,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.1658146852775</v>
+        <v>167.2148644222634</v>
       </c>
       <c r="H7" t="n">
-        <v>154.8907084131551</v>
+        <v>155.3268051656304</v>
       </c>
       <c r="I7" t="n">
-        <v>130.6355227555885</v>
+        <v>132.1105821187667</v>
       </c>
       <c r="J7" t="n">
-        <v>68.65627904547948</v>
+        <v>72.12409545038793</v>
       </c>
       <c r="K7" t="n">
-        <v>33.14412614092828</v>
+        <v>38.84281376529884</v>
       </c>
       <c r="L7" t="n">
-        <v>12.20519387026839</v>
+        <v>19.49755203998329</v>
       </c>
       <c r="M7" t="n">
-        <v>9.577470677924651</v>
+        <v>17.2662399038262</v>
       </c>
       <c r="N7" t="n">
-        <v>1.412844977410202</v>
+        <v>8.918792456364031</v>
       </c>
       <c r="O7" t="n">
-        <v>21.823262646183</v>
+        <v>28.75622001580066</v>
       </c>
       <c r="P7" t="n">
-        <v>37.92808757638606</v>
+        <v>43.86043031148982</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.40871249605685</v>
+        <v>86.51595910858246</v>
       </c>
       <c r="R7" t="n">
-        <v>140.1909870721275</v>
+        <v>142.3964416096969</v>
       </c>
       <c r="S7" t="n">
-        <v>209.6362282325312</v>
+        <v>210.4910313761868</v>
       </c>
       <c r="T7" t="n">
-        <v>224.4198858246887</v>
+        <v>224.6294619736288</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2740203743174</v>
+        <v>286.2766958145166</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23032,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>294.7633856167878</v>
       </c>
       <c r="G8" t="n">
         <v>413.3887043444878</v>
       </c>
       <c r="H8" t="n">
-        <v>207.7600497819524</v>
+        <v>319.8727099068761</v>
       </c>
       <c r="I8" t="n">
-        <v>24.57246563410428</v>
+        <v>136.685125759028</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,25 +23068,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>95.3531516584621</v>
+        <v>95.35315165846211</v>
       </c>
       <c r="S8" t="n">
-        <v>165.4040387101212</v>
+        <v>165.4040387101213</v>
       </c>
       <c r="T8" t="n">
-        <v>214.717169359623</v>
+        <v>150.1747103487719</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1925302541847</v>
+        <v>139.0798701292611</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>284.6985097065617</v>
+        <v>237.1283085924894</v>
       </c>
       <c r="X8" t="n">
-        <v>257.6184405535453</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23111,16 +23111,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>32.95655226846024</v>
       </c>
       <c r="G9" t="n">
-        <v>136.3194191323308</v>
+        <v>46.89290067268568</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>102.3448132540521</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>64.26286446312979</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23144,13 +23144,13 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.256558775821418</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.095592888813</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>138.4900069389507</v>
+        <v>152.6609993460486</v>
       </c>
       <c r="T9" t="n">
         <v>196.0368949650912</v>
@@ -23162,10 +23162,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>139.5823230359959</v>
+        <v>139.582323035996</v>
       </c>
       <c r="X9" t="n">
-        <v>93.66032507855377</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23205,22 +23205,22 @@
         <v>66.29456574971167</v>
       </c>
       <c r="K10" t="n">
-        <v>29.26310570632462</v>
+        <v>29.26310570632464</v>
       </c>
       <c r="L10" t="n">
-        <v>7.238823902544752</v>
+        <v>7.238823902544766</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7157523946084789</v>
+        <v>4.341129883412094</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>17.10165812996878</v>
+        <v>17.1016581299688</v>
       </c>
       <c r="P10" t="n">
-        <v>33.88793923037925</v>
+        <v>33.88793923037926</v>
       </c>
       <c r="Q10" t="n">
         <v>79.61152319847201</v>
@@ -23238,7 +23238,7 @@
         <v>286.2721982989959</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>248.5122658350244</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23260,25 +23260,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>112.0656400530239</v>
+        <v>100.4801176868645</v>
       </c>
       <c r="D11" t="n">
-        <v>101.4757899026993</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>128.7231183542781</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>396.2999774273291</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>412.8705340736013</v>
+        <v>412.8304410053316</v>
       </c>
       <c r="H11" t="n">
-        <v>314.5659986201601</v>
+        <v>314.1553954847429</v>
       </c>
       <c r="I11" t="n">
-        <v>116.7083663906777</v>
+        <v>80.56166965827225</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>62.80363837989037</v>
+        <v>60.28514218019296</v>
       </c>
       <c r="S11" t="n">
-        <v>153.596233662296</v>
+        <v>152.6826128690999</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1510766325138</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>62.95948438599186</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23348,19 +23348,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>114.5465385976485</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0421735954127</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>99.66720504223717</v>
+        <v>99.46002694872712</v>
       </c>
       <c r="I12" t="n">
-        <v>54.71734926660518</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>3.889197745894975</v>
+        <v>1.862484161744234</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>64.88204981594646</v>
+        <v>63.55016376157397</v>
       </c>
       <c r="S12" t="n">
-        <v>147.5112850967134</v>
+        <v>147.112829499068</v>
       </c>
       <c r="T12" t="n">
-        <v>45.20111395828661</v>
+        <v>194.8329355579188</v>
       </c>
       <c r="U12" t="n">
-        <v>225.855767372567</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>55.093100248046</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,19 +23430,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.8999766261806</v>
+        <v>166.881992256008</v>
       </c>
       <c r="H13" t="n">
-        <v>152.5271663968213</v>
+        <v>152.3672689965592</v>
       </c>
       <c r="I13" t="n">
-        <v>122.6410473056577</v>
+        <v>122.1002082462846</v>
       </c>
       <c r="J13" t="n">
-        <v>49.86152826733218</v>
+        <v>48.59003329612769</v>
       </c>
       <c r="K13" t="n">
-        <v>2.258577093130612</v>
+        <v>0.1691202676203432</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,22 +23457,22 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>5.776182683436133</v>
+        <v>3.601054858194459</v>
       </c>
       <c r="Q13" t="n">
-        <v>60.14840011113789</v>
+        <v>58.6424543505921</v>
       </c>
       <c r="R13" t="n">
-        <v>128.2379412512819</v>
+        <v>127.429298570611</v>
       </c>
       <c r="S13" t="n">
-        <v>205.0033958753615</v>
+        <v>204.689977351535</v>
       </c>
       <c r="T13" t="n">
-        <v>223.2840322994568</v>
+        <v>223.2071899905374</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2595201165485</v>
+        <v>286.2585391509027</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>95.85856907404116</v>
       </c>
     </row>
     <row r="14">
@@ -23497,25 +23497,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>142.2479444578076</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>101.4757899026994</v>
+        <v>89.89026753653997</v>
       </c>
       <c r="E14" t="n">
-        <v>128.7231183542782</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>153.6687940237279</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>412.8705340736013</v>
+        <v>412.8304410053316</v>
       </c>
       <c r="H14" t="n">
-        <v>314.5659986201601</v>
+        <v>49.36262140059989</v>
       </c>
       <c r="I14" t="n">
-        <v>116.7083663906777</v>
+        <v>115.1626783762095</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>62.80363837989037</v>
+        <v>60.28514218019293</v>
       </c>
       <c r="S14" t="n">
-        <v>153.596233662296</v>
+        <v>131.7265090482536</v>
       </c>
       <c r="T14" t="n">
-        <v>212.4488789988175</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1510766325138</v>
+        <v>251.1478691870522</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>121.4451645719106</v>
       </c>
     </row>
     <row r="15">
@@ -23576,7 +23576,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>137.7876565885396</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23588,16 +23588,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0421735954127</v>
+        <v>136.0207219127059</v>
       </c>
       <c r="H15" t="n">
-        <v>99.66720504223717</v>
+        <v>99.46002694872712</v>
       </c>
       <c r="I15" t="n">
-        <v>54.71734926660518</v>
+        <v>53.97877159446444</v>
       </c>
       <c r="J15" t="n">
-        <v>3.889197745894975</v>
+        <v>1.862484161744206</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>64.88204981594646</v>
+        <v>63.55016376157396</v>
       </c>
       <c r="S15" t="n">
-        <v>147.5112850967134</v>
+        <v>147.112829499068</v>
       </c>
       <c r="T15" t="n">
-        <v>194.9194008930395</v>
+        <v>194.8329355579188</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.8543560776521</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23639,10 +23639,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>15.70867233267151</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23667,19 +23667,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.8999766261806</v>
+        <v>166.881992256008</v>
       </c>
       <c r="H16" t="n">
-        <v>152.5271663968213</v>
+        <v>152.3672689965592</v>
       </c>
       <c r="I16" t="n">
-        <v>122.6410473056577</v>
+        <v>122.1002082462846</v>
       </c>
       <c r="J16" t="n">
-        <v>49.86152826733218</v>
+        <v>48.59003329612767</v>
       </c>
       <c r="K16" t="n">
-        <v>2.258577093130612</v>
+        <v>0.1691202676203147</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,28 +23694,28 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>5.776182683436133</v>
+        <v>3.601054858194431</v>
       </c>
       <c r="Q16" t="n">
-        <v>60.14840011113789</v>
+        <v>58.64245435059209</v>
       </c>
       <c r="R16" t="n">
-        <v>128.2379412512819</v>
+        <v>127.429298570611</v>
       </c>
       <c r="S16" t="n">
-        <v>205.0033958753615</v>
+        <v>204.689977351535</v>
       </c>
       <c r="T16" t="n">
-        <v>223.2840322994568</v>
+        <v>223.2071899905374</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2595201165485</v>
+        <v>286.2585391509027</v>
       </c>
       <c r="V16" t="n">
-        <v>139.9839224732462</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>163.7969140585372</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>117.9410675793375</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>100.4801176868644</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>128.7231183542781</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>153.6687940237278</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>159.6632823556177</v>
+        <v>412.8304410053316</v>
       </c>
       <c r="H17" t="n">
-        <v>91.5410513069601</v>
+        <v>314.1553954847429</v>
       </c>
       <c r="I17" t="n">
-        <v>116.7083663906777</v>
+        <v>115.1626783762095</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>62.80363837989037</v>
+        <v>60.28514218019293</v>
       </c>
       <c r="S17" t="n">
-        <v>153.596233662296</v>
+        <v>152.6826128690999</v>
       </c>
       <c r="T17" t="n">
-        <v>212.4488789988175</v>
+        <v>212.2733715924669</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1510766325138</v>
+        <v>251.1478691870522</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>94.52278305682182</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>104.9383265943259</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23810,31 +23810,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>2.362914431984393</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.0207219127059</v>
       </c>
       <c r="H18" t="n">
-        <v>99.66720504223717</v>
+        <v>99.46002694872712</v>
       </c>
       <c r="I18" t="n">
-        <v>54.71734926660518</v>
+        <v>53.97877159446444</v>
       </c>
       <c r="J18" t="n">
-        <v>3.889197745894975</v>
+        <v>1.862484161744206</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>63.55016376157396</v>
       </c>
       <c r="S18" t="n">
-        <v>147.5112850967134</v>
+        <v>147.112829499068</v>
       </c>
       <c r="T18" t="n">
-        <v>194.9194008930395</v>
+        <v>194.8329355579188</v>
       </c>
       <c r="U18" t="n">
-        <v>225.855767372567</v>
+        <v>225.8543560776521</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>37.56243854457244</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23904,19 +23904,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.8999766261806</v>
+        <v>166.881992256008</v>
       </c>
       <c r="H19" t="n">
-        <v>152.5271663968213</v>
+        <v>152.3672689965592</v>
       </c>
       <c r="I19" t="n">
-        <v>122.6410473056577</v>
+        <v>122.1002082462846</v>
       </c>
       <c r="J19" t="n">
-        <v>49.86152826733218</v>
+        <v>48.59003329612767</v>
       </c>
       <c r="K19" t="n">
-        <v>2.258577093130612</v>
+        <v>0.1691202676203147</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23931,22 +23931,22 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>5.776182683436133</v>
+        <v>3.601054858194431</v>
       </c>
       <c r="Q19" t="n">
-        <v>60.14840011113789</v>
+        <v>58.64245435059209</v>
       </c>
       <c r="R19" t="n">
-        <v>128.2379412512819</v>
+        <v>127.429298570611</v>
       </c>
       <c r="S19" t="n">
-        <v>205.0033958753615</v>
+        <v>204.689977351535</v>
       </c>
       <c r="T19" t="n">
-        <v>111.1303114488749</v>
+        <v>223.2071899905374</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2595201165485</v>
+        <v>286.2585391509027</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>95.85856907404101</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>117.9410675793374</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>192.3285585378873</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>117.1375959881186</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>412.8705340736013</v>
+        <v>412.8304410053316</v>
       </c>
       <c r="H20" t="n">
-        <v>314.5659986201601</v>
+        <v>314.1553954847429</v>
       </c>
       <c r="I20" t="n">
-        <v>116.7083663906777</v>
+        <v>115.1626783762095</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>62.80363837989037</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>153.596233662296</v>
+        <v>152.6826128690999</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.2733715924669</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.1478691870522</v>
       </c>
       <c r="V20" t="n">
-        <v>74.54500675215115</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>96.03371699942926</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>357.0988572786165</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>121.4451645719104</v>
       </c>
     </row>
     <row r="21">
@@ -24059,19 +24059,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>104.0023024581753</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0421735954127</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>99.66720504223717</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>54.71734926660518</v>
+        <v>53.97877159446444</v>
       </c>
       <c r="J21" t="n">
-        <v>3.889197745894975</v>
+        <v>1.862484161744206</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>64.88204981594646</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>147.5112850967134</v>
+        <v>147.112829499068</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>194.8329355579188</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>78.50874532010107</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24141,19 +24141,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.8999766261806</v>
+        <v>166.881992256008</v>
       </c>
       <c r="H22" t="n">
-        <v>152.5271663968213</v>
+        <v>152.3672689965592</v>
       </c>
       <c r="I22" t="n">
-        <v>122.6410473056577</v>
+        <v>122.1002082462846</v>
       </c>
       <c r="J22" t="n">
-        <v>49.86152826733218</v>
+        <v>48.59003329612767</v>
       </c>
       <c r="K22" t="n">
-        <v>2.258577093130612</v>
+        <v>0.1691202676203147</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24168,22 +24168,22 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>5.776182683436133</v>
+        <v>3.601054858194431</v>
       </c>
       <c r="Q22" t="n">
-        <v>60.14840011113789</v>
+        <v>58.64245435059209</v>
       </c>
       <c r="R22" t="n">
-        <v>128.2379412512819</v>
+        <v>127.429298570611</v>
       </c>
       <c r="S22" t="n">
-        <v>205.0033958753615</v>
+        <v>81.96389307348122</v>
       </c>
       <c r="T22" t="n">
-        <v>111.1303114488749</v>
+        <v>223.2071899905374</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2595201165485</v>
+        <v>286.2585391509027</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24220,10 +24220,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>78.16360657708285</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>130.8133087092504</v>
+        <v>41.95040880210334</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U23" t="n">
-        <v>170.9997346863726</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24335,13 +24335,13 @@
         <v>31.6688608772142</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>85.72246781399862</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>85.72246781399869</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24375,10 +24375,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H25" t="n">
         <v>148.5398113612452</v>
@@ -24414,19 +24414,19 @@
         <v>108.0728512656385</v>
       </c>
       <c r="S25" t="n">
-        <v>197.1876907596158</v>
+        <v>91.82560851936739</v>
       </c>
       <c r="T25" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2350578157167</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>232.961193773869</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,16 +24445,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>411.8707348436268</v>
@@ -24499,19 +24499,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>142.9489346435752</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>206.8662932344064</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24524,10 +24524,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>39.0158202877831</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24539,10 +24539,10 @@
         <v>135.5072338470352</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>36.29946757904879</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>31.6688608772142</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24578,7 +24578,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>43.8142496665869</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>135.5663557888583</v>
       </c>
       <c r="G28" t="n">
         <v>166.4515011109318</v>
@@ -24660,10 +24660,10 @@
         <v>286.2350578157167</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>66.50969266293728</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,25 +24682,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,19 +24736,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>208.2769376570304</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>337.9582001034325</v>
       </c>
     </row>
     <row r="30">
@@ -24758,22 +24758,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>85.72246781399856</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H30" t="n">
         <v>94.50081326185511</v>
@@ -24809,13 +24809,13 @@
         <v>31.6688608772142</v>
       </c>
       <c r="S30" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>135.277842666917</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24824,7 +24824,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24858,10 +24858,10 @@
         <v>148.5398113612452</v>
       </c>
       <c r="I31" t="n">
-        <v>29.48265419608984</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>18.15430933923913</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>197.1876907596158</v>
       </c>
       <c r="T31" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2350578157167</v>
+        <v>35.45192755253703</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>153.4785333691648</v>
+        <v>104.6810302145592</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I32" t="n">
         <v>78.16360657708285</v>
@@ -24973,7 +24973,7 @@
         <v>208.0722578696038</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24982,7 +24982,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -24998,16 +24998,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>69.13456261409216</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>135.5072338470352</v>
@@ -25016,7 +25016,7 @@
         <v>94.50081326185511</v>
       </c>
       <c r="I33" t="n">
-        <v>36.29946757904879</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25049,10 +25049,10 @@
         <v>137.5750138932992</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U33" t="n">
-        <v>95.59251948533827</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>126.2701756192147</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>153.4023838815783</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.5398113612452</v>
@@ -25134,7 +25134,7 @@
         <v>286.2350578157167</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>41.29324925450186</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,13 +25210,13 @@
         <v>208.0722578696038</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>192.7120251242567</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25238,7 +25238,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25247,10 +25247,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>115.2302539023259</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>94.50081326185511</v>
+        <v>82.33359036413323</v>
       </c>
       <c r="I36" t="n">
         <v>36.29946757904879</v>
@@ -25289,7 +25289,7 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25298,7 +25298,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>197.1876907596158</v>
       </c>
       <c r="T37" t="n">
-        <v>221.3678187343026</v>
+        <v>35.73986807341129</v>
       </c>
       <c r="U37" t="n">
         <v>286.2350578157167</v>
@@ -25374,10 +25374,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>40.08170472814638</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25396,22 +25396,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>142.8886832188402</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I38" t="n">
-        <v>78.16360657708285</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>208.0722578696038</v>
@@ -25450,7 +25450,7 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>16.30044201465074</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25469,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>135.7713870802179</v>
       </c>
       <c r="G39" t="n">
         <v>135.5072338470352</v>
       </c>
       <c r="H39" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>36.29946757904879</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>31.6688608772142</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>70.66392401105236</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>19.07326280327717</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4515011109318</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J40" t="n">
         <v>18.15430933923913</v>
@@ -25593,13 +25593,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>22.59469128425542</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S40" t="n">
-        <v>113.3982611203562</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.3678187343026</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,10 +25639,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>199.527201649873</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H41" t="n">
         <v>304.326804756183</v>
@@ -25684,19 +25684,19 @@
         <v>208.0722578696038</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>316.8070468462332</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25709,25 +25709,25 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>94.50081326185511</v>
       </c>
       <c r="I42" t="n">
-        <v>36.29946757904879</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,22 +25754,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>31.6688608772142</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>13.14141109493212</v>
+        <v>164.6044276224661</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25803,13 +25803,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>18.15430933923913</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>22.59469128425542</v>
       </c>
       <c r="R43" t="n">
-        <v>100.8163808109113</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S43" t="n">
         <v>197.1876907596158</v>
       </c>
       <c r="T43" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2350578157167</v>
+        <v>201.9034286634688</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25918,19 +25918,19 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>25.66908944721519</v>
       </c>
       <c r="U44" t="n">
-        <v>220.7747349521769</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25952,10 +25952,10 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>118.373277168086</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>135.5072338470352</v>
@@ -25991,22 +25991,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>31.6688608772142</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>51.38625591707745</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26076,19 +26076,19 @@
         <v>197.1876907596158</v>
       </c>
       <c r="T46" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2350578157167</v>
+        <v>181.8858901991062</v>
       </c>
       <c r="V46" t="n">
-        <v>152.130312361952</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>296526.4580629243</v>
+        <v>296526.4580629244</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>342091.1537804437</v>
+        <v>321700.494115499</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>357907.57943658</v>
+        <v>357907.5794365799</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>459043.7771839015</v>
+        <v>466530.5488479239</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>459043.7771839012</v>
+        <v>466530.548847924</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>459043.7771839013</v>
+        <v>466530.548847924</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>459043.7771839016</v>
+        <v>466530.548847924</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>645633.2065222078</v>
+        <v>645633.2065222081</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>645633.2065222079</v>
+        <v>645633.2065222081</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>645633.2065222079</v>
+        <v>645633.2065222081</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>645633.2065222079</v>
+        <v>645633.2065222082</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>645633.2065222078</v>
+        <v>645633.2065222079</v>
       </c>
     </row>
   </sheetData>
@@ -26316,43 +26316,43 @@
         <v>118610.5832251696</v>
       </c>
       <c r="C2" t="n">
-        <v>136836.4615121774</v>
+        <v>128680.1976461995</v>
       </c>
       <c r="D2" t="n">
         <v>143163.0317746319</v>
       </c>
       <c r="E2" t="n">
-        <v>183617.5108735606</v>
+        <v>186612.2195391696</v>
       </c>
       <c r="F2" t="n">
-        <v>183617.5108735606</v>
+        <v>186612.2195391696</v>
       </c>
       <c r="G2" t="n">
-        <v>183617.5108735606</v>
+        <v>186612.2195391696</v>
       </c>
       <c r="H2" t="n">
-        <v>183617.5108735606</v>
+        <v>186612.2195391696</v>
       </c>
       <c r="I2" t="n">
         <v>258253.282608883</v>
       </c>
       <c r="J2" t="n">
-        <v>258253.2826088829</v>
+        <v>258253.282608883</v>
       </c>
       <c r="K2" t="n">
         <v>258253.282608883</v>
       </c>
       <c r="L2" t="n">
-        <v>258253.2826088829</v>
+        <v>258253.282608883</v>
       </c>
       <c r="M2" t="n">
-        <v>258253.2826088829</v>
+        <v>258253.282608883</v>
       </c>
       <c r="N2" t="n">
         <v>258253.282608883</v>
       </c>
       <c r="O2" t="n">
-        <v>258253.282608883</v>
+        <v>258253.2826088829</v>
       </c>
       <c r="P2" t="n">
         <v>258253.2826088829</v>
@@ -26368,13 +26368,13 @@
         <v>399106.8526518422</v>
       </c>
       <c r="C3" t="n">
-        <v>69152.13364531014</v>
+        <v>38180.34408023355</v>
       </c>
       <c r="D3" t="n">
-        <v>21905.62569575126</v>
+        <v>51164.61695028646</v>
       </c>
       <c r="E3" t="n">
-        <v>145682.2540662455</v>
+        <v>157153.895380903</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>264035.3461263079</v>
+        <v>253447.2331927454</v>
       </c>
       <c r="J3" t="n">
         <v>13028.564818605</v>
       </c>
       <c r="K3" t="n">
-        <v>11033.35130008064</v>
+        <v>6091.744777621049</v>
       </c>
       <c r="L3" t="n">
-        <v>4922.040583148902</v>
+        <v>9781.526363726971</v>
       </c>
       <c r="M3" t="n">
-        <v>35161.33660335693</v>
+        <v>38048.49511909331</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>30.96378040239005</v>
       </c>
       <c r="C4" t="n">
-        <v>67.14558386063672</v>
+        <v>49.92675977318713</v>
       </c>
       <c r="D4" t="n">
-        <v>81.37067654131214</v>
+        <v>81.37067654131209</v>
       </c>
       <c r="E4" t="n">
-        <v>182.2589384760894</v>
+        <v>190.1009848322017</v>
       </c>
       <c r="F4" t="n">
-        <v>182.2589384760894</v>
+        <v>190.1009848322018</v>
       </c>
       <c r="G4" t="n">
-        <v>182.2589384760894</v>
+        <v>190.1009848322018</v>
       </c>
       <c r="H4" t="n">
-        <v>182.2589384760894</v>
+        <v>190.1009848322018</v>
       </c>
       <c r="I4" t="n">
         <v>384.3219252469144</v>
@@ -26472,22 +26472,22 @@
         <v>45306.68319048216</v>
       </c>
       <c r="C5" t="n">
-        <v>49237.11966583622</v>
+        <v>47476.75964516138</v>
       </c>
       <c r="D5" t="n">
         <v>50823.37311172271</v>
       </c>
       <c r="E5" t="n">
-        <v>28584.23211703032</v>
+        <v>29506.0465628524</v>
       </c>
       <c r="F5" t="n">
-        <v>28584.23211703031</v>
+        <v>29506.0465628524</v>
       </c>
       <c r="G5" t="n">
-        <v>28584.23211703032</v>
+        <v>29506.0465628524</v>
       </c>
       <c r="H5" t="n">
-        <v>28584.23211703032</v>
+        <v>29506.04656285241</v>
       </c>
       <c r="I5" t="n">
         <v>51571.48185587232</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-325833.9163975571</v>
+        <v>-340429.4314829058</v>
       </c>
       <c r="C6" t="n">
-        <v>18380.06261717038</v>
+        <v>28881.13279673425</v>
       </c>
       <c r="D6" t="n">
-        <v>70352.66229061666</v>
+        <v>27725.77837820596</v>
       </c>
       <c r="E6" t="n">
-        <v>9168.765751808758</v>
+        <v>-11433.25665906667</v>
       </c>
       <c r="F6" t="n">
-        <v>154851.0198180542</v>
+        <v>145720.6387218364</v>
       </c>
       <c r="G6" t="n">
-        <v>154851.0198180542</v>
+        <v>145720.6387218364</v>
       </c>
       <c r="H6" t="n">
-        <v>154851.0198180542</v>
+        <v>145720.6387218364</v>
       </c>
       <c r="I6" t="n">
-        <v>-57737.86729854415</v>
+        <v>-54763.13448114454</v>
       </c>
       <c r="J6" t="n">
-        <v>193268.9140091587</v>
+        <v>185655.5338929958</v>
       </c>
       <c r="K6" t="n">
-        <v>195264.1275276831</v>
+        <v>192592.3539339797</v>
       </c>
       <c r="L6" t="n">
-        <v>201375.4382446148</v>
+        <v>188902.5723478738</v>
       </c>
       <c r="M6" t="n">
-        <v>171136.1422244067</v>
+        <v>160635.6035925075</v>
       </c>
       <c r="N6" t="n">
-        <v>206297.4788277637</v>
+        <v>198684.0987116008</v>
       </c>
       <c r="O6" t="n">
-        <v>206297.4788277637</v>
+        <v>198684.0987116008</v>
       </c>
       <c r="P6" t="n">
-        <v>206297.4788277637</v>
+        <v>198684.0987116008</v>
       </c>
     </row>
   </sheetData>
@@ -26740,22 +26740,22 @@
         <v>396.859943267568</v>
       </c>
       <c r="C3" t="n">
-        <v>457.5913187641655</v>
+        <v>430.3910100719429</v>
       </c>
       <c r="D3" t="n">
         <v>476.1157511985022</v>
       </c>
       <c r="E3" t="n">
-        <v>605.0106060815096</v>
+        <v>614.983756813601</v>
       </c>
       <c r="F3" t="n">
-        <v>605.0106060815096</v>
+        <v>614.9837568136011</v>
       </c>
       <c r="G3" t="n">
-        <v>605.0106060815096</v>
+        <v>614.9837568136011</v>
       </c>
       <c r="H3" t="n">
-        <v>605.0106060815096</v>
+        <v>614.9837568136011</v>
       </c>
       <c r="I3" t="n">
         <v>853.710664537685</v>
@@ -26792,22 +26792,22 @@
         <v>49.79500702712463</v>
       </c>
       <c r="C4" t="n">
-        <v>92.6649492891022</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="D4" t="n">
-        <v>112.1126601249237</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="E4" t="n">
-        <v>253.2072517179837</v>
+        <v>264.792774084143</v>
       </c>
       <c r="F4" t="n">
-        <v>253.2072517179836</v>
+        <v>264.792774084143</v>
       </c>
       <c r="G4" t="n">
-        <v>253.2072517179836</v>
+        <v>264.7927740841431</v>
       </c>
       <c r="H4" t="n">
-        <v>253.2072517179838</v>
+        <v>264.7927740841432</v>
       </c>
       <c r="I4" t="n">
         <v>542.1149567261642</v>
@@ -26962,13 +26962,13 @@
         <v>396.859943267568</v>
       </c>
       <c r="C3" t="n">
-        <v>60.73137549659748</v>
+        <v>33.53106680437492</v>
       </c>
       <c r="D3" t="n">
-        <v>18.52443243433669</v>
+        <v>45.72474112655919</v>
       </c>
       <c r="E3" t="n">
-        <v>128.8948548830074</v>
+        <v>138.8680056150988</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>248.7000584561754</v>
+        <v>238.726907724084</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>49.79500702712463</v>
       </c>
       <c r="C4" t="n">
-        <v>42.86994226197757</v>
+        <v>23.66939470960278</v>
       </c>
       <c r="D4" t="n">
-        <v>19.44771083582151</v>
+        <v>38.64825838819623</v>
       </c>
       <c r="E4" t="n">
-        <v>141.09459159306</v>
+        <v>152.6801139592194</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>288.9077050081805</v>
+        <v>277.322182642021</v>
       </c>
       <c r="J4" t="n">
         <v>49.79500702712463</v>
       </c>
       <c r="K4" t="n">
-        <v>42.86994226197757</v>
+        <v>23.66939470960278</v>
       </c>
       <c r="L4" t="n">
-        <v>19.44771083582151</v>
+        <v>38.64825838819623</v>
       </c>
       <c r="M4" t="n">
-        <v>141.09459159306</v>
+        <v>152.6801139592194</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>49.79500702712463</v>
       </c>
       <c r="K4" t="n">
-        <v>42.86994226197757</v>
+        <v>23.66939470960278</v>
       </c>
       <c r="L4" t="n">
-        <v>19.44771083582151</v>
+        <v>38.64825838819623</v>
       </c>
       <c r="M4" t="n">
-        <v>141.09459159306</v>
+        <v>152.6801139592194</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31138,7 +31138,7 @@
         <v>185.3448253911411</v>
       </c>
       <c r="M3" t="n">
-        <v>163.8914845489273</v>
+        <v>191.9290409491429</v>
       </c>
       <c r="N3" t="n">
         <v>181.1367191104579</v>
@@ -31147,7 +31147,7 @@
         <v>192.3912514715691</v>
       </c>
       <c r="P3" t="n">
-        <v>163.0046057545602</v>
+        <v>134.9670493543445</v>
       </c>
       <c r="Q3" t="n">
         <v>108.96426215905</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.839563090509207</v>
+        <v>1.730215115867106</v>
       </c>
       <c r="H5" t="n">
-        <v>18.83942550067742</v>
+        <v>17.719565555374</v>
       </c>
       <c r="I5" t="n">
-        <v>70.91975604685626</v>
+        <v>66.70411825446666</v>
       </c>
       <c r="J5" t="n">
-        <v>156.1306178531059</v>
+        <v>146.8498451903259</v>
       </c>
       <c r="K5" t="n">
-        <v>233.9993234743607</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>290.2968524055319</v>
+        <v>273.0409218971986</v>
       </c>
       <c r="M5" t="n">
-        <v>323.011182516375</v>
+        <v>303.8106349640001</v>
       </c>
       <c r="N5" t="n">
-        <v>322.0780128856931</v>
+        <v>302.8774653333184</v>
       </c>
       <c r="O5" t="n">
-        <v>309.9456856660333</v>
+        <v>291.5217821035541</v>
       </c>
       <c r="P5" t="n">
-        <v>264.5314718690873</v>
+        <v>248.8070964305848</v>
       </c>
       <c r="Q5" t="n">
-        <v>198.6521186902262</v>
+        <v>186.8437675935941</v>
       </c>
       <c r="R5" t="n">
-        <v>115.5544549841991</v>
+        <v>108.6856252720872</v>
       </c>
       <c r="S5" t="n">
-        <v>41.91904392497859</v>
+        <v>39.42727695282172</v>
       </c>
       <c r="T5" t="n">
-        <v>8.052687428704056</v>
+        <v>7.57401666970826</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1471650472407365</v>
+        <v>0.1384172092693684</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9842530252663183</v>
+        <v>0.9257467009094621</v>
       </c>
       <c r="H6" t="n">
-        <v>9.505812112440497</v>
+        <v>8.940764190362438</v>
       </c>
       <c r="I6" t="n">
-        <v>33.88765898395</v>
+        <v>31.87329650061087</v>
       </c>
       <c r="J6" t="n">
-        <v>92.99032639149897</v>
+        <v>87.46276177320495</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>149.4877907341389</v>
       </c>
       <c r="L6" t="n">
-        <v>213.7080965605662</v>
+        <v>154.6015615668937</v>
       </c>
       <c r="M6" t="n">
-        <v>234.7989832111205</v>
+        <v>215.5984356587457</v>
       </c>
       <c r="N6" t="n">
-        <v>184.8814651136646</v>
+        <v>204.8061138200607</v>
       </c>
       <c r="O6" t="n">
-        <v>234.1788327264121</v>
+        <v>216.0606461811718</v>
       </c>
       <c r="P6" t="n">
-        <v>187.9491588335306</v>
+        <v>176.7770169482288</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.6390352953988</v>
+        <v>118.1707543125833</v>
       </c>
       <c r="R6" t="n">
-        <v>61.11002555118424</v>
+        <v>57.47750130734365</v>
       </c>
       <c r="S6" t="n">
-        <v>18.28206825439849</v>
+        <v>17.19533894013846</v>
       </c>
       <c r="T6" t="n">
-        <v>3.967230395700641</v>
+        <v>3.731408851472787</v>
       </c>
       <c r="U6" t="n">
-        <v>0.06475348850436308</v>
+        <v>0.0609043882177278</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8251646731812819</v>
+        <v>0.7761149361953068</v>
       </c>
       <c r="H7" t="n">
-        <v>7.336464094284494</v>
+        <v>6.900367341809188</v>
       </c>
       <c r="I7" t="n">
-        <v>24.81495217166983</v>
+        <v>23.3398928084916</v>
       </c>
       <c r="J7" t="n">
-        <v>58.33914239391663</v>
+        <v>54.87132598900818</v>
       </c>
       <c r="K7" t="n">
-        <v>95.8691320296071</v>
+        <v>90.17044440523654</v>
       </c>
       <c r="L7" t="n">
-        <v>122.6794824109699</v>
+        <v>115.387124241255</v>
       </c>
       <c r="M7" t="n">
-        <v>129.3483132696804</v>
+        <v>121.6595440437789</v>
       </c>
       <c r="N7" t="n">
-        <v>126.272699487823</v>
+        <v>118.7667520088692</v>
       </c>
       <c r="O7" t="n">
-        <v>116.6332758056598</v>
+        <v>109.7003184360421</v>
       </c>
       <c r="P7" t="n">
-        <v>99.79991647276155</v>
+        <v>93.86757373765779</v>
       </c>
       <c r="Q7" t="n">
-        <v>69.09628913338899</v>
+        <v>64.98904252086338</v>
       </c>
       <c r="R7" t="n">
-        <v>37.102404305042</v>
+        <v>34.89694976747261</v>
       </c>
       <c r="S7" t="n">
-        <v>14.38036980444106</v>
+        <v>13.52556666078548</v>
       </c>
       <c r="T7" t="n">
-        <v>3.52570360359275</v>
+        <v>3.316127454652674</v>
       </c>
       <c r="U7" t="n">
-        <v>0.04500898217352452</v>
+        <v>0.04233354197428951</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.914033170647244</v>
+        <v>1.914033170647243</v>
       </c>
       <c r="H8" t="n">
         <v>19.60209220889109</v>
@@ -31530,34 +31530,34 @@
         <v>243.4721969307195</v>
       </c>
       <c r="L8" t="n">
-        <v>302.0487895769152</v>
+        <v>302.0487895769151</v>
       </c>
       <c r="M8" t="n">
         <v>336.087476975413</v>
       </c>
       <c r="N8" t="n">
-        <v>341.5257237215146</v>
+        <v>341.5257237215145</v>
       </c>
       <c r="O8" t="n">
         <v>322.493056380891</v>
       </c>
       <c r="P8" t="n">
-        <v>275.2403624805372</v>
+        <v>275.2403624805371</v>
       </c>
       <c r="Q8" t="n">
-        <v>206.6940495567327</v>
+        <v>206.6940495567326</v>
       </c>
       <c r="R8" t="n">
         <v>120.23238615567</v>
       </c>
       <c r="S8" t="n">
-        <v>43.61603087612411</v>
+        <v>43.6160308761241</v>
       </c>
       <c r="T8" t="n">
-        <v>8.378680204508314</v>
+        <v>8.378680204508312</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1531226536517795</v>
+        <v>0.1531226536517794</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31600,10 +31600,10 @@
         <v>9.890630982444359</v>
       </c>
       <c r="I9" t="n">
-        <v>35.25951553687022</v>
+        <v>35.25951553687021</v>
       </c>
       <c r="J9" t="n">
-        <v>96.75480562798998</v>
+        <v>96.75480562798997</v>
       </c>
       <c r="K9" t="n">
         <v>165.3693736969364</v>
@@ -31615,10 +31615,10 @@
         <v>254.246694046942</v>
       </c>
       <c r="N9" t="n">
-        <v>189.1706736602747</v>
+        <v>189.1706736602745</v>
       </c>
       <c r="O9" t="n">
-        <v>243.6589731628788</v>
+        <v>243.6589731628787</v>
       </c>
       <c r="P9" t="n">
         <v>195.5578073177395</v>
@@ -31633,10 +31633,10 @@
         <v>19.0221717577892</v>
       </c>
       <c r="T9" t="n">
-        <v>4.127833729730409</v>
+        <v>4.127833729730408</v>
       </c>
       <c r="U9" t="n">
-        <v>0.06737487045261827</v>
+        <v>0.06737487045261825</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,7 +31673,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8585693874071351</v>
+        <v>0.858569387407135</v>
       </c>
       <c r="H10" t="n">
         <v>7.633462371674351</v>
@@ -31682,10 +31682,10 @@
         <v>25.8195230322073</v>
       </c>
       <c r="J10" t="n">
-        <v>60.70085568968445</v>
+        <v>60.70085568968444</v>
       </c>
       <c r="K10" t="n">
-        <v>99.75015246421076</v>
+        <v>99.75015246421074</v>
       </c>
       <c r="L10" t="n">
         <v>127.6458523786935</v>
@@ -31706,7 +31706,7 @@
         <v>71.89347843097383</v>
       </c>
       <c r="R10" t="n">
-        <v>38.60440172832445</v>
+        <v>38.60440172832444</v>
       </c>
       <c r="S10" t="n">
         <v>14.96252286963161</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.432203441533705</v>
+        <v>2.472296509803419</v>
       </c>
       <c r="H11" t="n">
-        <v>24.90880349560707</v>
+        <v>25.31940663102427</v>
       </c>
       <c r="I11" t="n">
-        <v>93.76752317972826</v>
+        <v>95.31321119419641</v>
       </c>
       <c r="J11" t="n">
-        <v>206.4302268458715</v>
+        <v>209.8330758989281</v>
       </c>
       <c r="K11" t="n">
-        <v>309.3853985259933</v>
+        <v>314.4853871589069</v>
       </c>
       <c r="L11" t="n">
-        <v>383.8199445998305</v>
+        <v>390.1469314708034</v>
       </c>
       <c r="M11" t="n">
-        <v>427.0736425532056</v>
+        <v>434.1136345270199</v>
       </c>
       <c r="N11" t="n">
-        <v>433.9841405814632</v>
+        <v>441.1380469854989</v>
       </c>
       <c r="O11" t="n">
-        <v>409.7989176097124</v>
+        <v>416.5541485661412</v>
       </c>
       <c r="P11" t="n">
-        <v>349.753895146849</v>
+        <v>355.5193284803692</v>
       </c>
       <c r="Q11" t="n">
-        <v>262.6506093969231</v>
+        <v>266.9802097230341</v>
       </c>
       <c r="R11" t="n">
-        <v>152.7818994342418</v>
+        <v>155.3003956339392</v>
       </c>
       <c r="S11" t="n">
-        <v>55.42383592394936</v>
+        <v>56.33745671714547</v>
       </c>
       <c r="T11" t="n">
-        <v>10.6469705653138</v>
+        <v>10.82247797166447</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1945762753226964</v>
+        <v>0.1977837207842735</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.301343567797964</v>
+        <v>1.322795250504727</v>
       </c>
       <c r="H12" t="n">
-        <v>12.56823919425929</v>
+        <v>12.77541728776934</v>
       </c>
       <c r="I12" t="n">
-        <v>44.80503073339482</v>
+        <v>45.54360840553555</v>
       </c>
       <c r="J12" t="n">
-        <v>122.9484289207717</v>
+        <v>124.9751425049225</v>
       </c>
       <c r="K12" t="n">
-        <v>210.1384479632353</v>
+        <v>213.6024242887391</v>
       </c>
       <c r="L12" t="n">
-        <v>282.5570759817466</v>
+        <v>287.2148196326162</v>
       </c>
       <c r="M12" t="n">
-        <v>329.7307803144227</v>
+        <v>335.1661474634125</v>
       </c>
       <c r="N12" t="n">
-        <v>338.4577729247872</v>
+        <v>344.036998068771</v>
       </c>
       <c r="O12" t="n">
-        <v>309.6227391330534</v>
+        <v>314.7266401496926</v>
       </c>
       <c r="P12" t="n">
-        <v>248.4995449771394</v>
+        <v>252.5958755108543</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.1153648999647</v>
+        <v>168.8536533802174</v>
       </c>
       <c r="R12" t="n">
-        <v>80.79745414801749</v>
+        <v>82.12934020238998</v>
       </c>
       <c r="S12" t="n">
-        <v>24.17188600712445</v>
+        <v>24.5703416047698</v>
       </c>
       <c r="T12" t="n">
-        <v>5.245327801782143</v>
+        <v>5.331793136902822</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08561470840776084</v>
+        <v>0.08702600332267942</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.091002732278132</v>
+        <v>1.108987102450756</v>
       </c>
       <c r="H13" t="n">
-        <v>9.700006110618308</v>
+        <v>9.859903510880363</v>
       </c>
       <c r="I13" t="n">
-        <v>32.80942762160056</v>
+        <v>33.35026668097365</v>
       </c>
       <c r="J13" t="n">
-        <v>77.13389317206394</v>
+        <v>78.40538814326842</v>
       </c>
       <c r="K13" t="n">
-        <v>126.7546810774048</v>
+        <v>128.844137902915</v>
       </c>
       <c r="L13" t="n">
-        <v>162.202351669787</v>
+        <v>164.8761370316333</v>
       </c>
       <c r="M13" t="n">
-        <v>171.0196373879257</v>
+        <v>173.8387691596216</v>
       </c>
       <c r="N13" t="n">
-        <v>166.9531726585255</v>
+        <v>169.7052717777599</v>
       </c>
       <c r="O13" t="n">
-        <v>154.2082771041855</v>
+        <v>156.7502860809487</v>
       </c>
       <c r="P13" t="n">
-        <v>131.9518213657115</v>
+        <v>134.1269491909532</v>
       </c>
       <c r="Q13" t="n">
-        <v>91.35660151830795</v>
+        <v>92.86254727885374</v>
       </c>
       <c r="R13" t="n">
-        <v>49.05545012588763</v>
+        <v>49.86409280655851</v>
       </c>
       <c r="S13" t="n">
-        <v>19.01320216161071</v>
+        <v>19.32662068543726</v>
       </c>
       <c r="T13" t="n">
-        <v>4.661557128824745</v>
+        <v>4.738399437744137</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05950923994244364</v>
+        <v>0.06049020558822311</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.432203441533705</v>
+        <v>2.47229650980342</v>
       </c>
       <c r="H14" t="n">
-        <v>24.90880349560707</v>
+        <v>25.31940663102428</v>
       </c>
       <c r="I14" t="n">
-        <v>93.76752317972826</v>
+        <v>95.31321119419643</v>
       </c>
       <c r="J14" t="n">
-        <v>206.4302268458715</v>
+        <v>209.8330758989282</v>
       </c>
       <c r="K14" t="n">
-        <v>309.3853985259933</v>
+        <v>314.485387158907</v>
       </c>
       <c r="L14" t="n">
-        <v>383.8199445998305</v>
+        <v>390.1469314708035</v>
       </c>
       <c r="M14" t="n">
-        <v>427.0736425532056</v>
+        <v>434.11363452702</v>
       </c>
       <c r="N14" t="n">
-        <v>433.9841405814632</v>
+        <v>441.138046985499</v>
       </c>
       <c r="O14" t="n">
-        <v>409.7989176097124</v>
+        <v>416.5541485661412</v>
       </c>
       <c r="P14" t="n">
-        <v>349.753895146849</v>
+        <v>355.5193284803693</v>
       </c>
       <c r="Q14" t="n">
-        <v>262.6506093969231</v>
+        <v>266.9802097230342</v>
       </c>
       <c r="R14" t="n">
-        <v>152.7818994342418</v>
+        <v>155.3003956339392</v>
       </c>
       <c r="S14" t="n">
-        <v>55.42383592394936</v>
+        <v>56.33745671714548</v>
       </c>
       <c r="T14" t="n">
-        <v>10.6469705653138</v>
+        <v>10.82247797166447</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1945762753226964</v>
+        <v>0.1977837207842735</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.301343567797964</v>
+        <v>1.322795250504727</v>
       </c>
       <c r="H15" t="n">
-        <v>12.56823919425929</v>
+        <v>12.77541728776934</v>
       </c>
       <c r="I15" t="n">
-        <v>44.80503073339482</v>
+        <v>45.54360840553556</v>
       </c>
       <c r="J15" t="n">
-        <v>122.9484289207717</v>
+        <v>124.9751425049225</v>
       </c>
       <c r="K15" t="n">
-        <v>210.1384479632353</v>
+        <v>213.6024242887392</v>
       </c>
       <c r="L15" t="n">
-        <v>282.5570759817466</v>
+        <v>287.2148196326163</v>
       </c>
       <c r="M15" t="n">
-        <v>329.7307803144227</v>
+        <v>335.1661474634125</v>
       </c>
       <c r="N15" t="n">
-        <v>338.4577729247872</v>
+        <v>344.0369980687711</v>
       </c>
       <c r="O15" t="n">
-        <v>309.6227391330534</v>
+        <v>314.7266401496926</v>
       </c>
       <c r="P15" t="n">
-        <v>248.4995449771394</v>
+        <v>252.5958755108544</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.1153648999647</v>
+        <v>168.8536533802174</v>
       </c>
       <c r="R15" t="n">
-        <v>80.79745414801749</v>
+        <v>82.12934020239</v>
       </c>
       <c r="S15" t="n">
-        <v>24.17188600712445</v>
+        <v>24.5703416047698</v>
       </c>
       <c r="T15" t="n">
-        <v>5.245327801782143</v>
+        <v>5.331793136902823</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08561470840776084</v>
+        <v>0.08702600332267943</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.091002732278132</v>
+        <v>1.108987102450756</v>
       </c>
       <c r="H16" t="n">
-        <v>9.700006110618308</v>
+        <v>9.859903510880365</v>
       </c>
       <c r="I16" t="n">
-        <v>32.80942762160056</v>
+        <v>33.35026668097365</v>
       </c>
       <c r="J16" t="n">
-        <v>77.13389317206394</v>
+        <v>78.40538814326844</v>
       </c>
       <c r="K16" t="n">
-        <v>126.7546810774048</v>
+        <v>128.8441379029151</v>
       </c>
       <c r="L16" t="n">
-        <v>162.202351669787</v>
+        <v>164.8761370316333</v>
       </c>
       <c r="M16" t="n">
-        <v>171.0196373879257</v>
+        <v>173.8387691596216</v>
       </c>
       <c r="N16" t="n">
-        <v>166.9531726585255</v>
+        <v>169.7052717777599</v>
       </c>
       <c r="O16" t="n">
-        <v>154.2082771041855</v>
+        <v>156.7502860809487</v>
       </c>
       <c r="P16" t="n">
-        <v>131.9518213657115</v>
+        <v>134.1269491909532</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.35660151830795</v>
+        <v>92.86254727885375</v>
       </c>
       <c r="R16" t="n">
-        <v>49.05545012588763</v>
+        <v>49.86409280655852</v>
       </c>
       <c r="S16" t="n">
-        <v>19.01320216161071</v>
+        <v>19.32662068543726</v>
       </c>
       <c r="T16" t="n">
-        <v>4.661557128824745</v>
+        <v>4.738399437744138</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05950923994244364</v>
+        <v>0.06049020558822312</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.432203441533705</v>
+        <v>2.47229650980342</v>
       </c>
       <c r="H17" t="n">
-        <v>24.90880349560707</v>
+        <v>25.31940663102428</v>
       </c>
       <c r="I17" t="n">
-        <v>93.76752317972826</v>
+        <v>95.31321119419643</v>
       </c>
       <c r="J17" t="n">
-        <v>206.4302268458715</v>
+        <v>209.8330758989282</v>
       </c>
       <c r="K17" t="n">
-        <v>309.3853985259933</v>
+        <v>314.485387158907</v>
       </c>
       <c r="L17" t="n">
-        <v>383.8199445998305</v>
+        <v>390.1469314708035</v>
       </c>
       <c r="M17" t="n">
-        <v>427.0736425532056</v>
+        <v>434.11363452702</v>
       </c>
       <c r="N17" t="n">
-        <v>433.9841405814632</v>
+        <v>441.138046985499</v>
       </c>
       <c r="O17" t="n">
-        <v>409.7989176097124</v>
+        <v>416.5541485661412</v>
       </c>
       <c r="P17" t="n">
-        <v>349.753895146849</v>
+        <v>355.5193284803693</v>
       </c>
       <c r="Q17" t="n">
-        <v>262.6506093969231</v>
+        <v>266.9802097230342</v>
       </c>
       <c r="R17" t="n">
-        <v>152.7818994342418</v>
+        <v>155.3003956339392</v>
       </c>
       <c r="S17" t="n">
-        <v>55.42383592394936</v>
+        <v>56.33745671714548</v>
       </c>
       <c r="T17" t="n">
-        <v>10.6469705653138</v>
+        <v>10.82247797166447</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1945762753226964</v>
+        <v>0.1977837207842735</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.301343567797964</v>
+        <v>1.322795250504727</v>
       </c>
       <c r="H18" t="n">
-        <v>12.56823919425929</v>
+        <v>12.77541728776934</v>
       </c>
       <c r="I18" t="n">
-        <v>44.80503073339482</v>
+        <v>45.54360840553556</v>
       </c>
       <c r="J18" t="n">
-        <v>122.9484289207717</v>
+        <v>124.9751425049225</v>
       </c>
       <c r="K18" t="n">
-        <v>210.1384479632353</v>
+        <v>213.6024242887392</v>
       </c>
       <c r="L18" t="n">
-        <v>282.5570759817466</v>
+        <v>287.2148196326163</v>
       </c>
       <c r="M18" t="n">
-        <v>329.7307803144227</v>
+        <v>335.1661474634125</v>
       </c>
       <c r="N18" t="n">
-        <v>338.4577729247872</v>
+        <v>344.0369980687711</v>
       </c>
       <c r="O18" t="n">
-        <v>309.6227391330534</v>
+        <v>314.7266401496926</v>
       </c>
       <c r="P18" t="n">
-        <v>248.4995449771394</v>
+        <v>252.5958755108544</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.1153648999647</v>
+        <v>168.8536533802174</v>
       </c>
       <c r="R18" t="n">
-        <v>80.79745414801749</v>
+        <v>82.12934020239</v>
       </c>
       <c r="S18" t="n">
-        <v>24.17188600712445</v>
+        <v>24.5703416047698</v>
       </c>
       <c r="T18" t="n">
-        <v>5.245327801782143</v>
+        <v>5.331793136902823</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08561470840776084</v>
+        <v>0.08702600332267943</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.091002732278132</v>
+        <v>1.108987102450756</v>
       </c>
       <c r="H19" t="n">
-        <v>9.700006110618308</v>
+        <v>9.859903510880365</v>
       </c>
       <c r="I19" t="n">
-        <v>32.80942762160056</v>
+        <v>33.35026668097365</v>
       </c>
       <c r="J19" t="n">
-        <v>77.13389317206394</v>
+        <v>78.40538814326844</v>
       </c>
       <c r="K19" t="n">
-        <v>126.7546810774048</v>
+        <v>128.8441379029151</v>
       </c>
       <c r="L19" t="n">
-        <v>162.202351669787</v>
+        <v>164.8761370316333</v>
       </c>
       <c r="M19" t="n">
-        <v>171.0196373879257</v>
+        <v>173.8387691596216</v>
       </c>
       <c r="N19" t="n">
-        <v>166.9531726585255</v>
+        <v>169.7052717777599</v>
       </c>
       <c r="O19" t="n">
-        <v>154.2082771041855</v>
+        <v>156.7502860809487</v>
       </c>
       <c r="P19" t="n">
-        <v>131.9518213657115</v>
+        <v>134.1269491909532</v>
       </c>
       <c r="Q19" t="n">
-        <v>91.35660151830795</v>
+        <v>92.86254727885375</v>
       </c>
       <c r="R19" t="n">
-        <v>49.05545012588763</v>
+        <v>49.86409280655852</v>
       </c>
       <c r="S19" t="n">
-        <v>19.01320216161071</v>
+        <v>19.32662068543726</v>
       </c>
       <c r="T19" t="n">
-        <v>4.661557128824745</v>
+        <v>4.738399437744138</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05950923994244364</v>
+        <v>0.06049020558822312</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.432203441533705</v>
+        <v>2.47229650980342</v>
       </c>
       <c r="H20" t="n">
-        <v>24.90880349560707</v>
+        <v>25.31940663102428</v>
       </c>
       <c r="I20" t="n">
-        <v>93.76752317972826</v>
+        <v>95.31321119419643</v>
       </c>
       <c r="J20" t="n">
-        <v>206.4302268458715</v>
+        <v>209.8330758989282</v>
       </c>
       <c r="K20" t="n">
-        <v>309.3853985259933</v>
+        <v>314.485387158907</v>
       </c>
       <c r="L20" t="n">
-        <v>383.8199445998305</v>
+        <v>390.1469314708035</v>
       </c>
       <c r="M20" t="n">
-        <v>427.0736425532056</v>
+        <v>434.11363452702</v>
       </c>
       <c r="N20" t="n">
-        <v>433.9841405814632</v>
+        <v>441.138046985499</v>
       </c>
       <c r="O20" t="n">
-        <v>409.7989176097124</v>
+        <v>416.5541485661412</v>
       </c>
       <c r="P20" t="n">
-        <v>349.753895146849</v>
+        <v>355.5193284803693</v>
       </c>
       <c r="Q20" t="n">
-        <v>262.6506093969231</v>
+        <v>266.9802097230342</v>
       </c>
       <c r="R20" t="n">
-        <v>152.7818994342418</v>
+        <v>155.3003956339392</v>
       </c>
       <c r="S20" t="n">
-        <v>55.42383592394936</v>
+        <v>56.33745671714548</v>
       </c>
       <c r="T20" t="n">
-        <v>10.6469705653138</v>
+        <v>10.82247797166447</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1945762753226964</v>
+        <v>0.1977837207842735</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.301343567797964</v>
+        <v>1.322795250504727</v>
       </c>
       <c r="H21" t="n">
-        <v>12.56823919425929</v>
+        <v>12.77541728776934</v>
       </c>
       <c r="I21" t="n">
-        <v>44.80503073339482</v>
+        <v>45.54360840553556</v>
       </c>
       <c r="J21" t="n">
-        <v>122.9484289207717</v>
+        <v>124.9751425049225</v>
       </c>
       <c r="K21" t="n">
-        <v>210.1384479632353</v>
+        <v>213.6024242887392</v>
       </c>
       <c r="L21" t="n">
-        <v>282.5570759817466</v>
+        <v>287.2148196326163</v>
       </c>
       <c r="M21" t="n">
-        <v>329.7307803144227</v>
+        <v>335.1661474634125</v>
       </c>
       <c r="N21" t="n">
-        <v>338.4577729247872</v>
+        <v>344.0369980687711</v>
       </c>
       <c r="O21" t="n">
-        <v>309.6227391330534</v>
+        <v>314.7266401496926</v>
       </c>
       <c r="P21" t="n">
-        <v>248.4995449771394</v>
+        <v>252.5958755108544</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.1153648999647</v>
+        <v>168.8536533802174</v>
       </c>
       <c r="R21" t="n">
-        <v>80.79745414801749</v>
+        <v>82.12934020239</v>
       </c>
       <c r="S21" t="n">
-        <v>24.17188600712445</v>
+        <v>24.5703416047698</v>
       </c>
       <c r="T21" t="n">
-        <v>5.245327801782143</v>
+        <v>5.331793136902823</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08561470840776084</v>
+        <v>0.08702600332267943</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.091002732278132</v>
+        <v>1.108987102450756</v>
       </c>
       <c r="H22" t="n">
-        <v>9.700006110618308</v>
+        <v>9.859903510880365</v>
       </c>
       <c r="I22" t="n">
-        <v>32.80942762160056</v>
+        <v>33.35026668097365</v>
       </c>
       <c r="J22" t="n">
-        <v>77.13389317206394</v>
+        <v>78.40538814326844</v>
       </c>
       <c r="K22" t="n">
-        <v>126.7546810774048</v>
+        <v>128.8441379029151</v>
       </c>
       <c r="L22" t="n">
-        <v>162.202351669787</v>
+        <v>164.8761370316333</v>
       </c>
       <c r="M22" t="n">
-        <v>171.0196373879257</v>
+        <v>173.8387691596216</v>
       </c>
       <c r="N22" t="n">
-        <v>166.9531726585255</v>
+        <v>169.7052717777599</v>
       </c>
       <c r="O22" t="n">
-        <v>154.2082771041855</v>
+        <v>156.7502860809487</v>
       </c>
       <c r="P22" t="n">
-        <v>131.9518213657115</v>
+        <v>134.1269491909532</v>
       </c>
       <c r="Q22" t="n">
-        <v>91.35660151830795</v>
+        <v>92.86254727885375</v>
       </c>
       <c r="R22" t="n">
-        <v>49.05545012588763</v>
+        <v>49.86409280655852</v>
       </c>
       <c r="S22" t="n">
-        <v>19.01320216161071</v>
+        <v>19.32662068543726</v>
       </c>
       <c r="T22" t="n">
-        <v>4.661557128824745</v>
+        <v>4.738399437744138</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05950923994244364</v>
+        <v>0.06049020558822312</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34149,7 +34149,7 @@
         <v>578.253840119091</v>
       </c>
       <c r="P41" t="n">
-        <v>493.5262741662303</v>
+        <v>493.5262741662302</v>
       </c>
       <c r="Q41" t="n">
         <v>370.6176784928399</v>
@@ -34786,7 +34786,7 @@
         <v>46.79044561126693</v>
       </c>
       <c r="M3" t="n">
-        <v>21.75745062690899</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="N3" t="n">
         <v>49.79500702712463</v>
@@ -34795,7 +34795,7 @@
         <v>49.79500702712463</v>
       </c>
       <c r="P3" t="n">
-        <v>29.03019834022993</v>
+        <v>0.9926419400142784</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>13.90947242938014</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>54.53043743554463</v>
+        <v>37.27450692721135</v>
       </c>
       <c r="M5" t="n">
-        <v>92.6649492891022</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="N5" t="n">
-        <v>92.6649492891022</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="O5" t="n">
-        <v>79.84747424434661</v>
+        <v>61.42357068186735</v>
       </c>
       <c r="P5" t="n">
-        <v>33.29847611381774</v>
+        <v>17.57410067531529</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>11.64635175977992</v>
       </c>
       <c r="L6" t="n">
-        <v>75.15371678069201</v>
+        <v>16.04718178701956</v>
       </c>
       <c r="M6" t="n">
-        <v>92.6649492891022</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="N6" t="n">
-        <v>53.53975303033131</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="O6" t="n">
-        <v>91.5825882819677</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="P6" t="n">
-        <v>53.97475141920032</v>
+        <v>42.80260953389856</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>23.38234588573897</v>
+        <v>23.38234588573894</v>
       </c>
       <c r="L8" t="n">
-        <v>66.28237460692793</v>
+        <v>66.28237460692787</v>
       </c>
       <c r="M8" t="n">
         <v>105.7412437481403</v>
       </c>
       <c r="N8" t="n">
-        <v>112.1126601249237</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="O8" t="n">
         <v>92.39484495920428</v>
       </c>
       <c r="P8" t="n">
-        <v>44.00736672526762</v>
+        <v>44.00736672526756</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35257,13 +35257,13 @@
         <v>27.52793472257738</v>
       </c>
       <c r="L9" t="n">
-        <v>83.8051510039169</v>
+        <v>83.80515100391688</v>
       </c>
       <c r="M9" t="n">
-        <v>112.1126601249237</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="N9" t="n">
-        <v>57.82896157694136</v>
+        <v>57.82896157694122</v>
       </c>
       <c r="O9" t="n">
         <v>101.0627287184343</v>
@@ -35342,7 +35342,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>3.698987336806027</v>
+        <v>3.698987336805999</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>25.38432231918523</v>
+        <v>28.78717137224186</v>
       </c>
       <c r="K11" t="n">
-        <v>89.29554748101276</v>
+        <v>94.39553611392637</v>
       </c>
       <c r="L11" t="n">
-        <v>148.0535296298433</v>
+        <v>154.3805165008162</v>
       </c>
       <c r="M11" t="n">
-        <v>196.7274093259328</v>
+        <v>203.7674012997472</v>
       </c>
       <c r="N11" t="n">
-        <v>204.5710769848723</v>
+        <v>211.724983388908</v>
       </c>
       <c r="O11" t="n">
-        <v>179.7007061880257</v>
+        <v>186.4559371444545</v>
       </c>
       <c r="P11" t="n">
-        <v>118.5208993915795</v>
+        <v>124.2863327250997</v>
       </c>
       <c r="Q11" t="n">
-        <v>40.34491952247359</v>
+        <v>44.67451984858465</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>72.29700898887631</v>
+        <v>75.76098531438015</v>
       </c>
       <c r="L12" t="n">
-        <v>144.0026962018724</v>
+        <v>148.6604398527421</v>
       </c>
       <c r="M12" t="n">
-        <v>187.5967463924044</v>
+        <v>193.0321135413942</v>
       </c>
       <c r="N12" t="n">
-        <v>207.1160608414539</v>
+        <v>212.6952859854377</v>
       </c>
       <c r="O12" t="n">
-        <v>167.0264946886089</v>
+        <v>172.1303957052481</v>
       </c>
       <c r="P12" t="n">
-        <v>114.5251375628091</v>
+        <v>118.6214680965241</v>
       </c>
       <c r="Q12" t="n">
-        <v>26.13359081394319</v>
+        <v>28.87187929419588</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35573,16 +35573,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>27.31767538854876</v>
+        <v>29.99146075039499</v>
       </c>
       <c r="M13" t="n">
-        <v>32.09385344032066</v>
+        <v>34.91298521201657</v>
       </c>
       <c r="N13" t="n">
-        <v>39.26762819329235</v>
+        <v>42.01972731252667</v>
       </c>
       <c r="O13" t="n">
-        <v>15.75173865234271</v>
+        <v>18.29374762910589</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>25.38432231918523</v>
+        <v>28.78717137224189</v>
       </c>
       <c r="K14" t="n">
-        <v>89.29554748101276</v>
+        <v>94.39553611392643</v>
       </c>
       <c r="L14" t="n">
-        <v>148.0535296298433</v>
+        <v>154.3805165008162</v>
       </c>
       <c r="M14" t="n">
-        <v>196.7274093259328</v>
+        <v>203.7674012997473</v>
       </c>
       <c r="N14" t="n">
-        <v>204.5710769848723</v>
+        <v>211.7249833889081</v>
       </c>
       <c r="O14" t="n">
-        <v>179.7007061880257</v>
+        <v>186.4559371444545</v>
       </c>
       <c r="P14" t="n">
-        <v>118.5208993915795</v>
+        <v>124.2863327250997</v>
       </c>
       <c r="Q14" t="n">
-        <v>40.34491952247359</v>
+        <v>44.67451984858471</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>72.29700898887631</v>
+        <v>75.76098531438018</v>
       </c>
       <c r="L15" t="n">
-        <v>144.0026962018724</v>
+        <v>148.6604398527421</v>
       </c>
       <c r="M15" t="n">
-        <v>187.5967463924044</v>
+        <v>193.0321135413942</v>
       </c>
       <c r="N15" t="n">
-        <v>207.1160608414539</v>
+        <v>212.6952859854378</v>
       </c>
       <c r="O15" t="n">
-        <v>167.0264946886089</v>
+        <v>172.1303957052482</v>
       </c>
       <c r="P15" t="n">
-        <v>114.5251375628091</v>
+        <v>118.6214680965242</v>
       </c>
       <c r="Q15" t="n">
-        <v>26.13359081394319</v>
+        <v>28.87187929419591</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,16 +35810,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>27.31767538854876</v>
+        <v>29.99146075039505</v>
       </c>
       <c r="M16" t="n">
-        <v>32.09385344032066</v>
+        <v>34.91298521201659</v>
       </c>
       <c r="N16" t="n">
-        <v>39.26762819329235</v>
+        <v>42.0197273125267</v>
       </c>
       <c r="O16" t="n">
-        <v>15.75173865234271</v>
+        <v>18.29374762910592</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>25.38432231918523</v>
+        <v>28.78717137224189</v>
       </c>
       <c r="K17" t="n">
-        <v>89.29554748101276</v>
+        <v>94.39553611392643</v>
       </c>
       <c r="L17" t="n">
-        <v>148.0535296298433</v>
+        <v>154.3805165008162</v>
       </c>
       <c r="M17" t="n">
-        <v>196.7274093259328</v>
+        <v>203.7674012997473</v>
       </c>
       <c r="N17" t="n">
-        <v>204.5710769848723</v>
+        <v>211.7249833889081</v>
       </c>
       <c r="O17" t="n">
-        <v>179.7007061880257</v>
+        <v>186.4559371444545</v>
       </c>
       <c r="P17" t="n">
-        <v>118.5208993915795</v>
+        <v>124.2863327250997</v>
       </c>
       <c r="Q17" t="n">
-        <v>40.34491952247359</v>
+        <v>44.67451984858471</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>72.29700898887631</v>
+        <v>75.76098531438018</v>
       </c>
       <c r="L18" t="n">
-        <v>144.0026962018724</v>
+        <v>148.6604398527421</v>
       </c>
       <c r="M18" t="n">
-        <v>187.5967463924044</v>
+        <v>193.0321135413942</v>
       </c>
       <c r="N18" t="n">
-        <v>207.1160608414539</v>
+        <v>212.6952859854378</v>
       </c>
       <c r="O18" t="n">
-        <v>167.0264946886089</v>
+        <v>172.1303957052482</v>
       </c>
       <c r="P18" t="n">
-        <v>114.5251375628091</v>
+        <v>118.6214680965242</v>
       </c>
       <c r="Q18" t="n">
-        <v>26.13359081394319</v>
+        <v>28.87187929419591</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36047,16 +36047,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>27.31767538854876</v>
+        <v>29.99146075039505</v>
       </c>
       <c r="M19" t="n">
-        <v>32.09385344032066</v>
+        <v>34.91298521201659</v>
       </c>
       <c r="N19" t="n">
-        <v>39.26762819329235</v>
+        <v>42.0197273125267</v>
       </c>
       <c r="O19" t="n">
-        <v>15.75173865234271</v>
+        <v>18.29374762910592</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>25.38432231918523</v>
+        <v>28.78717137224189</v>
       </c>
       <c r="K20" t="n">
-        <v>89.29554748101276</v>
+        <v>94.39553611392643</v>
       </c>
       <c r="L20" t="n">
-        <v>148.0535296298433</v>
+        <v>154.3805165008162</v>
       </c>
       <c r="M20" t="n">
-        <v>196.7274093259328</v>
+        <v>203.7674012997473</v>
       </c>
       <c r="N20" t="n">
-        <v>204.5710769848723</v>
+        <v>211.7249833889081</v>
       </c>
       <c r="O20" t="n">
-        <v>179.7007061880257</v>
+        <v>186.4559371444545</v>
       </c>
       <c r="P20" t="n">
-        <v>118.5208993915795</v>
+        <v>124.2863327250997</v>
       </c>
       <c r="Q20" t="n">
-        <v>40.34491952247359</v>
+        <v>44.67451984858471</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>72.29700898887631</v>
+        <v>75.76098531438018</v>
       </c>
       <c r="L21" t="n">
-        <v>144.0026962018724</v>
+        <v>148.6604398527421</v>
       </c>
       <c r="M21" t="n">
-        <v>187.5967463924044</v>
+        <v>193.0321135413942</v>
       </c>
       <c r="N21" t="n">
-        <v>207.1160608414539</v>
+        <v>212.6952859854378</v>
       </c>
       <c r="O21" t="n">
-        <v>167.0264946886089</v>
+        <v>172.1303957052482</v>
       </c>
       <c r="P21" t="n">
-        <v>114.5251375628091</v>
+        <v>118.6214680965242</v>
       </c>
       <c r="Q21" t="n">
-        <v>26.13359081394319</v>
+        <v>28.87187929419591</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36284,16 +36284,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>27.31767538854876</v>
+        <v>29.99146075039505</v>
       </c>
       <c r="M22" t="n">
-        <v>32.09385344032066</v>
+        <v>34.91298521201659</v>
       </c>
       <c r="N22" t="n">
-        <v>39.26762819329235</v>
+        <v>42.0197273125267</v>
       </c>
       <c r="O22" t="n">
-        <v>15.75173865234271</v>
+        <v>18.29374762910592</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -37797,7 +37797,7 @@
         <v>348.1556286974043</v>
       </c>
       <c r="P41" t="n">
-        <v>262.2932784109607</v>
+        <v>262.2932784109606</v>
       </c>
       <c r="Q41" t="n">
         <v>148.3119886183904</v>
